--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EMCT\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDF6880-6CF4-468B-B204-6941FD3FE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75435F02-F9F7-47AC-9182-DC08BC96D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,9 @@
   <commentList>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{5410BBEF-9F42-4B21-BAA2-A456FBAEEDD8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Not 100% sure what this means.</t>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1310">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -5179,12 +5179,15 @@
   <si>
     <t>[de la suite telle que définie|du compartiment résistant au feu tel que défini]</t>
   </si>
+  <si>
+    <t>Next Step</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5368,7 +5371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5429,9 +5432,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5732,11 +5738,11 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -5746,7 +5752,7 @@
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="345">
+    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="300">
+    <row r="21" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120">
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -6117,7 +6123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -6159,7 +6165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>115</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -6195,13 +6201,13 @@
         <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>1309</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -6229,14 +6235,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="22" t="s">
         <v>131</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -6246,7 +6252,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>141</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -6299,13 +6305,13 @@
         <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>1309</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>145</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>149</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>153</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>157</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>161</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>165</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>177</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>181</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="45">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>185</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>193</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>199</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>203</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>207</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>211</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>215</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>219</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>223</v>
       </c>
@@ -6659,7 +6665,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>227</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>231</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>235</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>239</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>243</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>251</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>255</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>259</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>263</v>
       </c>
@@ -6832,7 +6838,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>267</v>
       </c>
@@ -6849,7 +6855,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>271</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>275</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>279</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>283</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>287</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>291</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>295</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>299</v>
       </c>
@@ -6985,7 +6991,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>303</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>311</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>315</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>319</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>323</v>
       </c>
@@ -7087,7 +7093,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>327</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>331</v>
       </c>
@@ -7115,7 +7121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>333</v>
       </c>
@@ -7132,7 +7138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="409.5">
+    <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>337</v>
       </c>
@@ -7149,7 +7155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.5">
+    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>341</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="225">
+    <row r="90" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>341</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>348</v>
       </c>
@@ -7197,7 +7203,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>356</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>360</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>364</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="330">
+    <row r="96" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>368</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>372</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>376</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>380</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>384</v>
       </c>
@@ -7326,7 +7332,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30">
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>388</v>
       </c>
@@ -7340,7 +7346,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="30">
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>392</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30">
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>396</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>398</v>
       </c>
@@ -7382,7 +7388,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>402</v>
       </c>
@@ -7396,7 +7402,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
@@ -7410,7 +7416,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>410</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>414</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>418</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>422</v>
       </c>
@@ -7466,7 +7472,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>426</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>430</v>
       </c>
@@ -7494,7 +7500,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>434</v>
       </c>
@@ -7508,7 +7514,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>438</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>442</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30">
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>444</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>448</v>
       </c>
@@ -7570,7 +7576,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>452</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>456</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>460</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>464</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>468</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>472</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>475</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>478</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>482</v>
       </c>
@@ -7708,7 +7714,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>484</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>488</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>492</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>496</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>500</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>504</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="60">
+    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>508</v>
       </c>
@@ -7806,7 +7812,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>512</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>516</v>
       </c>
@@ -7834,7 +7840,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>520</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>524</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>528</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>532</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45">
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>536</v>
       </c>
@@ -7913,7 +7919,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="45">
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>540</v>
       </c>
@@ -7930,7 +7936,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="45">
+    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>544</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90">
+    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>548</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="135">
+    <row r="144" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>552</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="135">
+    <row r="145" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>556</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>560</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="45">
+    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>564</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="45">
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>568</v>
       </c>
@@ -8046,7 +8052,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>572</v>
       </c>
@@ -8063,7 +8069,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>576</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>580</v>
       </c>
@@ -8097,7 +8103,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>584</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>588</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30">
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>592</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30">
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>596</v>
       </c>
@@ -8165,7 +8171,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="45">
+    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>600</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="75">
+    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>604</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="30">
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="30">
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>612</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="60">
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>616</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="45">
+    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>620</v>
       </c>
@@ -8249,7 +8255,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="30">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>624</v>
       </c>
@@ -8263,7 +8269,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="30">
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>628</v>
       </c>
@@ -8277,7 +8283,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30">
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>631</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="45">
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>635</v>
       </c>
@@ -8305,7 +8311,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30">
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>639</v>
       </c>
@@ -8319,7 +8325,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>643</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>647</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>651</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>653</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>655</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="30">
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>658</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>661</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>664</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="210">
+    <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>667</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="105">
+    <row r="176" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>671</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="195">
+    <row r="177" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>675</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="165">
+    <row r="178" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>679</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="60">
+    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>683</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="75">
+    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>687</v>
       </c>
@@ -8539,7 +8545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="180">
+    <row r="181" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>691</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="225">
+    <row r="182" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>695</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="210">
+    <row r="183" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>699</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="270">
+    <row r="184" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>703</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="30">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>707</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="30">
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>711</v>
       </c>
@@ -8635,7 +8641,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>713</v>
       </c>
@@ -8649,7 +8655,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>717</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>721</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>725</v>
       </c>
@@ -8691,7 +8697,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>729</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>733</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30">
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>737</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="30">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>741</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>745</v>
       </c>
@@ -8761,7 +8767,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>749</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="30">
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>753</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30">
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>753</v>
       </c>
@@ -8803,7 +8809,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="30">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>753</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>753</v>
       </c>
@@ -8831,7 +8837,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>753</v>
       </c>
@@ -8845,7 +8851,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="30">
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>753</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="30">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>753</v>
       </c>
@@ -8873,7 +8879,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="30">
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>753</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="30">
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>753</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="30">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>780</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30">
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>783</v>
       </c>
@@ -8929,7 +8935,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>786</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>789</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>793</v>
       </c>
@@ -8971,7 +8977,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="45">
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>797</v>
       </c>
@@ -8985,7 +8991,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>799</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="45">
+    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>801</v>
       </c>
@@ -9013,7 +9019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>803</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>805</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30">
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>807</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>809</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30">
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>813</v>
       </c>
@@ -9083,7 +9089,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="30">
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>817</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30">
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>821</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30">
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>824</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>827</v>
       </c>
@@ -9151,7 +9157,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>830</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>833</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30">
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>837</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="45">
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>841</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="45">
+    <row r="227" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>845</v>
       </c>
@@ -9237,7 +9243,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="90">
+    <row r="228" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>849</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30">
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>853</v>
       </c>
@@ -9265,7 +9271,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="60">
+    <row r="230" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>857</v>
       </c>
@@ -9279,7 +9285,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="30">
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>861</v>
       </c>
@@ -9293,7 +9299,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="30">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>865</v>
       </c>
@@ -9310,7 +9316,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="60">
+    <row r="233" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>869</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="45">
+    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>873</v>
       </c>
@@ -9338,7 +9344,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="45">
+    <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>877</v>
       </c>
@@ -9352,7 +9358,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="45">
+    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>881</v>
       </c>
@@ -9366,7 +9372,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="45">
+    <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>885</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="45">
+    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>889</v>
       </c>
@@ -9394,7 +9400,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="45">
+    <row r="239" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>893</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="45">
+    <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>897</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="45">
+    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>901</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="45">
+    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>905</v>
       </c>
@@ -9450,7 +9456,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="30">
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>909</v>
       </c>
@@ -9464,7 +9470,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="30">
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>913</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="30">
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>917</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="30">
+    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>921</v>
       </c>
@@ -9506,7 +9512,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="30">
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>925</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="30">
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>929</v>
       </c>
@@ -9534,7 +9540,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="30">
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>933</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="30">
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>937</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="30">
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>941</v>
       </c>
@@ -9576,7 +9582,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="45">
+    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>945</v>
       </c>
@@ -9590,7 +9596,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="50.25" customHeight="1">
+    <row r="253" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>949</v>
       </c>
@@ -9604,7 +9610,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>953</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30">
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>955</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30">
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>957</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30">
+    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>959</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30">
+    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>959</v>
       </c>
@@ -9689,7 +9695,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>963</v>
       </c>
@@ -9706,7 +9712,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>967</v>
       </c>
@@ -9723,7 +9729,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="60">
+    <row r="261" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>971</v>
       </c>
@@ -9737,7 +9743,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="60">
+    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>975</v>
       </c>
@@ -9751,7 +9757,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="60">
+    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>979</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="60">
+    <row r="264" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>983</v>
       </c>
@@ -9779,7 +9785,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="60">
+    <row r="265" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>987</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="75">
+    <row r="266" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>991</v>
       </c>
@@ -9810,7 +9816,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="60">
+    <row r="267" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>995</v>
       </c>
@@ -9824,7 +9830,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="75">
+    <row r="268" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>999</v>
       </c>
@@ -9838,7 +9844,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="75">
+    <row r="269" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>1003</v>
       </c>
@@ -9852,7 +9858,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="60">
+    <row r="270" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>1007</v>
       </c>
@@ -9866,7 +9872,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60">
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>1011</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="60">
+    <row r="272" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>1015</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60">
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>1019</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="60">
+    <row r="274" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>1023</v>
       </c>
@@ -9922,7 +9928,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="75">
+    <row r="275" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>1027</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="75">
+    <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>1031</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="75">
+    <row r="277" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>1035</v>
       </c>
@@ -9964,7 +9970,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="75">
+    <row r="278" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>1039</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="75">
+    <row r="279" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>1043</v>
       </c>
@@ -9992,7 +9998,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="75">
+    <row r="280" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>1047</v>
       </c>
@@ -10006,7 +10012,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="60">
+    <row r="281" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>1051</v>
       </c>
@@ -10023,7 +10029,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="60">
+    <row r="282" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>1055</v>
       </c>
@@ -10037,7 +10043,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="75">
+    <row r="283" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1059</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="60">
+    <row r="284" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>1063</v>
       </c>
@@ -10068,7 +10074,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="60">
+    <row r="285" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1067</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="60">
+    <row r="286" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>1071</v>
       </c>
@@ -10096,7 +10102,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="60">
+    <row r="287" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1075</v>
       </c>
@@ -10110,7 +10116,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>1079</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30">
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>1083</v>
       </c>
@@ -10144,7 +10150,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>1087</v>
       </c>
@@ -10161,7 +10167,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="30">
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>1091</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>1093</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45">
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>1095</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45">
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>1099</v>
       </c>
@@ -10229,7 +10235,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30">
+    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>1103</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="30">
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>1107</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>1111</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>1115</v>
       </c>
@@ -10297,7 +10303,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10314,7 +10320,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30">
+    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>1120</v>
       </c>
@@ -10331,7 +10337,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30">
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>1122</v>
       </c>
@@ -10348,7 +10354,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30">
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>1124</v>
       </c>
@@ -10365,7 +10371,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>1127</v>
       </c>
@@ -10382,7 +10388,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>1131</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>1135</v>
       </c>
@@ -10416,7 +10422,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>1137</v>
       </c>
@@ -10433,7 +10439,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30">
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>1140</v>
       </c>
@@ -10450,7 +10456,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30">
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>1144</v>
       </c>
@@ -10467,7 +10473,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30">
+    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>1148</v>
       </c>
@@ -10485,7 +10491,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1150</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30">
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>1153</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>1157</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>1161</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1165</v>
       </c>
@@ -10571,7 +10577,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30">
+    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>1169</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="45">
+    <row r="316" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1173</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="45">
+    <row r="317" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>1177</v>
       </c>
@@ -10623,7 +10629,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="30">
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>1180</v>
       </c>
@@ -10640,7 +10646,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>1184</v>
       </c>
@@ -10657,7 +10663,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30">
+    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>1188</v>
       </c>
@@ -10674,7 +10680,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>1190</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30">
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>1194</v>
       </c>
@@ -10708,7 +10714,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>1197</v>
       </c>
@@ -10725,7 +10731,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30">
+    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>1199</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="30">
+    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>1202</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30">
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>1206</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>1210</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>1214</v>
       </c>
@@ -10810,7 +10816,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="30">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>1218</v>
       </c>
@@ -10827,7 +10833,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="30">
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>1222</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="30">
+    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>1226</v>
       </c>
@@ -10861,7 +10867,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>1228</v>
       </c>
@@ -10878,7 +10884,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>1230</v>
       </c>
@@ -10895,7 +10901,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>1232</v>
       </c>
@@ -10912,7 +10918,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>1234</v>
       </c>
@@ -10929,7 +10935,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="30">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>1238</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="30">
+    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>1242</v>
       </c>
@@ -10963,7 +10969,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="30">
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>1246</v>
       </c>
@@ -10980,7 +10986,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1250</v>
       </c>
@@ -10997,7 +11003,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1254</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30">
+    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>1258</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30">
+    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>1260</v>
       </c>
@@ -11048,7 +11054,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="30">
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>1264</v>
       </c>
@@ -11065,7 +11071,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="30">
+    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>1266</v>
       </c>
@@ -11082,7 +11088,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1268</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>1270</v>
       </c>
@@ -11116,7 +11122,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>1272</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30">
+    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>1274</v>
       </c>
@@ -11150,7 +11156,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="30">
+    <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>1276</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="30">
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>1278</v>
       </c>
@@ -11184,7 +11190,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>1281</v>
       </c>
@@ -11201,7 +11207,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="30">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>1284</v>
       </c>
@@ -11218,7 +11224,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>1286</v>
       </c>
@@ -11235,7 +11241,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30">
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>1288</v>
       </c>
@@ -11252,7 +11258,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="30">
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1290</v>
       </c>
@@ -11273,7 +11279,7 @@
   <autoFilter ref="A1:A286" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;11&amp;K93979B Confidential&amp;1#_x000D_</oddHeader>
   </headerFooter>
@@ -11288,52 +11294,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="138" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1300</v>
       </c>
@@ -11355,7 +11361,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
@@ -11363,43 +11369,43 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
-    <row r="7" spans="4:4" s="14" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
+    <row r="6" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:4" s="14" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="31.15" customHeight="1">
+    <row r="8" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="16" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="9" spans="4:4" ht="31.15" customHeight="1">
+    <row r="9" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="17" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="31.15" customHeight="1">
+    <row r="10" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="17" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="11" spans="4:4" ht="31.15" customHeight="1">
+    <row r="11" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="17" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="12" spans="4:4" ht="31.15" customHeight="1">
+    <row r="12" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="17" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="13" spans="4:4" ht="31.15" customHeight="1">
+    <row r="13" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
+    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="18" t="s">
         <v>1308</v>
       </c>
@@ -11413,27 +11419,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
-    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058C4BCF715D4AD4F91C01182295CEFC1" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1471b12c27521517e0f325006a7c1259">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="165a71d3-e0a0-490b-84d6-e4435d601f38" xmlns:ns3="01495b67-12aa-4b93-9011-f94ea5f3e05d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a8efc0d0e28bf6a2851dcbc84f7a3d8" ns2:_="" ns3:_="">
     <xsd:import namespace="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
@@ -11700,16 +11685,63 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
+    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
+    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
+    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDF6880-6CF4-468B-B204-6941FD3FE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC783DA3-3987-4EED-BA6F-8C7143C43DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1310">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -617,56 +617,32 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>Do you prefer to use millimetres (mm) or inches (in)</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> for your measurements</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">?&lt;br/&gt; </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Please note that once you choose a measurement unit, you won't be able to switch between millimetres and inches later due to potential conversion errors.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Préférez-vous </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>utiliser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> des millimètres (mm) ou des pouces (in) pour vos mesures ? &lt;br/&gt; (Veuillez noter qu'une fois que vous avez choisi une unité de mesure, vous ne pourrez plus modifier votre choix  par la suite en raison d'erreurs de conversion potentielles).</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Préférez-vous utiliser des millimètres (mm) ou des pouces (in) pour vos mesures ? &lt;br/&gt; </t>
   </si>
   <si>
     <t>Step 1 question 2 choice 1</t>
@@ -697,6 +673,9 @@
   </si>
   <si>
     <t>step_1__next_button</t>
+  </si>
+  <si>
+    <t>Next Step</t>
   </si>
   <si>
     <t>Step 2D Canvas button for ceiling</t>
@@ -5184,7 +5163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5242,22 +5221,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5395,9 +5380,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5408,7 +5390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5428,6 +5410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5732,8 +5717,8 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5913,7 +5898,7 @@
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -6048,7 +6033,7 @@
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -6145,14 +6130,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -6195,7 +6180,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>20</v>
@@ -6203,44 +6188,44 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="13" t="s">
         <v>132</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="F34" s="4">
         <v>45737</v>
@@ -6248,30 +6233,30 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" s="4">
         <v>45736</v>
@@ -6279,10 +6264,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>75</v>
@@ -6291,15 +6276,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="30.75">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>20</v>
@@ -6307,30 +6292,30 @@
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F40" s="4">
         <v>45728</v>
@@ -6338,16 +6323,16 @@
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F41" s="4">
         <v>45728</v>
@@ -6355,16 +6340,16 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F42" s="4">
         <v>45728</v>
@@ -6372,16 +6357,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="13" t="s">
         <v>164</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="F43" s="4">
         <v>45740</v>
@@ -6389,16 +6374,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" s="4">
         <v>45736</v>
@@ -6406,16 +6391,16 @@
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" s="4">
         <v>45736</v>
@@ -6423,16 +6408,16 @@
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F46" s="4">
         <v>45736</v>
@@ -6440,16 +6425,16 @@
     </row>
     <row r="47" spans="1:6" ht="45">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="4">
         <v>45736</v>
@@ -6457,16 +6442,16 @@
     </row>
     <row r="48" spans="1:6" ht="45">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F48" s="4">
         <v>45736</v>
@@ -6474,16 +6459,16 @@
     </row>
     <row r="49" spans="1:6" ht="45">
       <c r="A49" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" s="4">
         <v>45736</v>
@@ -6491,16 +6476,16 @@
     </row>
     <row r="50" spans="1:6" ht="45">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F50" s="4">
         <v>45736</v>
@@ -6508,16 +6493,16 @@
     </row>
     <row r="51" spans="1:6" ht="30">
       <c r="A51" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="4">
         <v>45736</v>
@@ -6525,16 +6510,16 @@
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="A52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="21" t="s">
         <v>196</v>
       </c>
+      <c r="B52" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F52" s="4">
         <v>45736</v>
@@ -6542,16 +6527,16 @@
     </row>
     <row r="53" spans="1:6" ht="45">
       <c r="A53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="21" t="s">
         <v>200</v>
       </c>
+      <c r="B53" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F53" s="4">
         <v>45736</v>
@@ -6559,16 +6544,16 @@
     </row>
     <row r="54" spans="1:6" ht="45">
       <c r="A54" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="21" t="s">
         <v>204</v>
       </c>
+      <c r="B54" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4">
         <v>45736</v>
@@ -6576,16 +6561,16 @@
     </row>
     <row r="55" spans="1:6" ht="60">
       <c r="A55" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="21" t="s">
         <v>208</v>
       </c>
+      <c r="B55" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F55" s="4">
         <v>45736</v>
@@ -6593,16 +6578,16 @@
     </row>
     <row r="56" spans="1:6" ht="30">
       <c r="A56" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="21" t="s">
         <v>212</v>
       </c>
+      <c r="B56" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F56" s="4">
         <v>45736</v>
@@ -6610,16 +6595,16 @@
     </row>
     <row r="57" spans="1:6" ht="30">
       <c r="A57" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" s="4">
         <v>45740</v>
@@ -6627,16 +6612,16 @@
     </row>
     <row r="58" spans="1:6" ht="45">
       <c r="A58" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F58" s="4">
         <v>45740</v>
@@ -6644,16 +6629,16 @@
     </row>
     <row r="59" spans="1:6" ht="45">
       <c r="A59" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F59" s="4">
         <v>45740</v>
@@ -6661,16 +6646,16 @@
     </row>
     <row r="60" spans="1:6" ht="60">
       <c r="A60" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F60" s="4">
         <v>45740</v>
@@ -6678,16 +6663,16 @@
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F61" s="4">
         <v>45740</v>
@@ -6695,16 +6680,16 @@
     </row>
     <row r="62" spans="1:6" ht="30">
       <c r="A62" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" s="4">
         <v>45741</v>
@@ -6712,16 +6697,16 @@
     </row>
     <row r="63" spans="1:6" ht="30">
       <c r="A63" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="12" t="s">
         <v>241</v>
       </c>
+      <c r="C63" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F63" s="4">
         <v>45728</v>
@@ -6729,16 +6714,16 @@
     </row>
     <row r="64" spans="1:6" ht="30">
       <c r="A64" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F64" s="4">
         <v>45728</v>
@@ -6746,16 +6731,16 @@
     </row>
     <row r="65" spans="1:6" ht="30">
       <c r="A65" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F65" s="4">
         <v>45728</v>
@@ -6763,16 +6748,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="4">
         <v>45728</v>
@@ -6780,16 +6765,16 @@
     </row>
     <row r="67" spans="1:6" ht="30">
       <c r="A67" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F67" s="4">
         <v>45728</v>
@@ -6797,16 +6782,16 @@
     </row>
     <row r="68" spans="1:6" ht="30">
       <c r="A68" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" s="4">
         <v>45728</v>
@@ -6814,16 +6799,16 @@
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="11" t="s">
         <v>265</v>
       </c>
+      <c r="C69" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="D69" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -6834,16 +6819,16 @@
     </row>
     <row r="70" spans="1:6" ht="30">
       <c r="A70" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" s="11" t="s">
         <v>269</v>
       </c>
+      <c r="C70" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="D70" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F70" s="4">
         <v>45728</v>
@@ -6851,16 +6836,16 @@
     </row>
     <row r="71" spans="1:6" ht="30">
       <c r="A71" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" s="4">
         <v>45728</v>
@@ -6868,16 +6853,16 @@
     </row>
     <row r="72" spans="1:6" ht="30">
       <c r="A72" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4">
         <v>45728</v>
@@ -6885,16 +6870,16 @@
     </row>
     <row r="73" spans="1:6" ht="30">
       <c r="A73" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F73" s="4">
         <v>45728</v>
@@ -6902,16 +6887,16 @@
     </row>
     <row r="74" spans="1:6" ht="45">
       <c r="A74" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="4">
         <v>45728</v>
@@ -6919,16 +6904,16 @@
     </row>
     <row r="75" spans="1:6" ht="60">
       <c r="A75" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C75" s="19" t="s">
         <v>289</v>
       </c>
+      <c r="C75" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="D75" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" s="4">
         <v>45744</v>
@@ -6936,16 +6921,16 @@
     </row>
     <row r="76" spans="1:6" ht="60">
       <c r="A76" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C76" s="19" t="s">
         <v>293</v>
       </c>
+      <c r="C76" s="18" t="s">
+        <v>294</v>
+      </c>
       <c r="D76" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F76" s="4">
         <v>45744</v>
@@ -6953,16 +6938,16 @@
     </row>
     <row r="77" spans="1:6" ht="30">
       <c r="A77" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F77" s="4">
         <v>45728</v>
@@ -6970,16 +6955,16 @@
     </row>
     <row r="78" spans="1:6" ht="30">
       <c r="A78" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F78" s="4">
         <v>45728</v>
@@ -6987,16 +6972,16 @@
     </row>
     <row r="79" spans="1:6" ht="30">
       <c r="A79" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" s="4">
         <v>45728</v>
@@ -7004,16 +6989,16 @@
     </row>
     <row r="80" spans="1:6" ht="30">
       <c r="A80" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F80" s="4">
         <v>45728</v>
@@ -7021,16 +7006,16 @@
     </row>
     <row r="81" spans="1:6" ht="30">
       <c r="A81" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F81" s="4">
         <v>45728</v>
@@ -7038,16 +7023,16 @@
     </row>
     <row r="82" spans="1:6" ht="45">
       <c r="A82" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F82" s="4">
         <v>45728</v>
@@ -7055,16 +7040,16 @@
     </row>
     <row r="83" spans="1:6" ht="45">
       <c r="A83" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C83" s="19" t="s">
         <v>321</v>
       </c>
+      <c r="C83" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="D83" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F83" s="4">
         <v>45744</v>
@@ -7072,16 +7057,16 @@
     </row>
     <row r="84" spans="1:6" ht="30">
       <c r="A84" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" s="4">
         <v>45728</v>
@@ -7089,24 +7074,24 @@
     </row>
     <row r="85" spans="1:6" ht="30">
       <c r="A85" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30">
       <c r="A86" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -7117,16 +7102,16 @@
     </row>
     <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -7134,16 +7119,16 @@
     </row>
     <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="11" t="s">
         <v>339</v>
       </c>
+      <c r="C88" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="D88" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>68</v>
@@ -7151,16 +7136,16 @@
     </row>
     <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>68</v>
@@ -7168,16 +7153,16 @@
     </row>
     <row r="90" spans="1:6" ht="225">
       <c r="A90" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>68</v>
@@ -7185,86 +7170,86 @@
     </row>
     <row r="91" spans="1:6" ht="30">
       <c r="A91" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
       <c r="A92" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
       <c r="A93" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30">
       <c r="A94" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
       <c r="A95" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="330">
       <c r="A96" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>68</v>
@@ -7272,282 +7257,282 @@
     </row>
     <row r="97" spans="1:4" ht="30">
       <c r="A97" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30">
       <c r="A98" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30">
       <c r="A99" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30">
       <c r="A100" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="30">
       <c r="A101" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="30">
       <c r="A102" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30">
       <c r="A103" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="30">
       <c r="A104" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30">
       <c r="A105" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30">
       <c r="A106" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30">
       <c r="A107" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30">
       <c r="A108" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30">
       <c r="A109" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="30">
       <c r="A114" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="30">
       <c r="A115" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30">
       <c r="A116" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F116" s="4">
         <v>45737</v>
@@ -7555,16 +7540,16 @@
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F117" s="4">
         <v>45737</v>
@@ -7572,16 +7557,16 @@
     </row>
     <row r="118" spans="1:6" ht="30">
       <c r="A118" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F118" s="4">
         <v>45737</v>
@@ -7589,16 +7574,16 @@
     </row>
     <row r="119" spans="1:6" ht="45">
       <c r="A119" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F119" s="4">
         <v>45737</v>
@@ -7606,16 +7591,16 @@
     </row>
     <row r="120" spans="1:6" ht="45">
       <c r="A120" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F120" s="4">
         <v>45737</v>
@@ -7623,44 +7608,44 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F123" s="4">
         <v>45737</v>
@@ -7668,212 +7653,212 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="30">
       <c r="A128" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30">
       <c r="A129" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30">
       <c r="A130" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="60">
       <c r="A133" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="30">
       <c r="A135" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30">
       <c r="A138" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F138" s="4">
         <v>45734</v>
@@ -7881,16 +7866,16 @@
     </row>
     <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F139" s="4">
         <v>45734</v>
@@ -7898,16 +7883,16 @@
     </row>
     <row r="140" spans="1:6" ht="45">
       <c r="A140" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F140" s="4">
         <v>45734</v>
@@ -7915,16 +7900,16 @@
     </row>
     <row r="141" spans="1:6" ht="45">
       <c r="A141" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F141" s="4">
         <v>45734</v>
@@ -7932,16 +7917,16 @@
     </row>
     <row r="142" spans="1:6" ht="45">
       <c r="A142" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>68</v>
@@ -7949,16 +7934,16 @@
     </row>
     <row r="143" spans="1:6" ht="90">
       <c r="A143" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
@@ -7966,16 +7951,16 @@
     </row>
     <row r="144" spans="1:6" ht="135">
       <c r="A144" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>68</v>
@@ -7983,16 +7968,16 @@
     </row>
     <row r="145" spans="1:6" ht="135">
       <c r="A145" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>68</v>
@@ -8000,16 +7985,16 @@
     </row>
     <row r="146" spans="1:6" ht="60">
       <c r="A146" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>68</v>
@@ -8017,30 +8002,30 @@
     </row>
     <row r="147" spans="1:6" ht="45">
       <c r="A147" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="45">
       <c r="A148" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F148" s="4">
         <v>45728</v>
@@ -8048,16 +8033,16 @@
     </row>
     <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F149" s="4">
         <v>45728</v>
@@ -8065,16 +8050,16 @@
     </row>
     <row r="150" spans="1:6" ht="30">
       <c r="A150" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F150" s="4">
         <v>45728</v>
@@ -8082,16 +8067,16 @@
     </row>
     <row r="151" spans="1:6" ht="30">
       <c r="A151" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F151" s="4">
         <v>45728</v>
@@ -8099,16 +8084,16 @@
     </row>
     <row r="152" spans="1:6" ht="30">
       <c r="A152" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F152" s="4">
         <v>45728</v>
@@ -8116,16 +8101,16 @@
     </row>
     <row r="153" spans="1:6" ht="30">
       <c r="A153" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F153" s="4">
         <v>45728</v>
@@ -8133,16 +8118,16 @@
     </row>
     <row r="154" spans="1:6" ht="30">
       <c r="A154" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F154" s="4">
         <v>45728</v>
@@ -8150,16 +8135,16 @@
     </row>
     <row r="155" spans="1:6" ht="30">
       <c r="A155" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F155" s="4">
         <v>45728</v>
@@ -8167,254 +8152,254 @@
     </row>
     <row r="156" spans="1:6" ht="45">
       <c r="A156" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="75">
       <c r="A157" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30">
       <c r="A158" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30">
       <c r="A159" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="60">
       <c r="A160" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="45">
       <c r="A161" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30">
       <c r="A162" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="30">
       <c r="A163" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30">
       <c r="A164" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="45">
       <c r="A165" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="30">
       <c r="A166" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30">
       <c r="A171" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30">
       <c r="A172" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F173" s="4">
         <v>45737</v>
@@ -8422,16 +8407,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F174" s="4">
         <v>45737</v>
@@ -8439,16 +8424,16 @@
     </row>
     <row r="175" spans="1:6" ht="210">
       <c r="A175" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C175" s="11" t="s">
         <v>669</v>
       </c>
+      <c r="C175" s="10" t="s">
+        <v>670</v>
+      </c>
       <c r="D175" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -8456,16 +8441,16 @@
     </row>
     <row r="176" spans="1:6" ht="105">
       <c r="A176" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>68</v>
@@ -8473,16 +8458,16 @@
     </row>
     <row r="177" spans="1:5" ht="195">
       <c r="A177" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>68</v>
@@ -8490,16 +8475,16 @@
     </row>
     <row r="178" spans="1:5" ht="165">
       <c r="A178" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C178" s="11" t="s">
         <v>681</v>
       </c>
+      <c r="C178" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="D178" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>68</v>
@@ -8507,16 +8492,16 @@
     </row>
     <row r="179" spans="1:5" ht="60">
       <c r="A179" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>68</v>
@@ -8524,16 +8509,16 @@
     </row>
     <row r="180" spans="1:5" ht="75">
       <c r="A180" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>68</v>
@@ -8541,16 +8526,16 @@
     </row>
     <row r="181" spans="1:5" ht="180">
       <c r="A181" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>68</v>
@@ -8558,16 +8543,16 @@
     </row>
     <row r="182" spans="1:5" ht="225">
       <c r="A182" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>68</v>
@@ -8575,16 +8560,16 @@
     </row>
     <row r="183" spans="1:5" ht="210">
       <c r="A183" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>68</v>
@@ -8592,16 +8577,16 @@
     </row>
     <row r="184" spans="1:5" ht="270">
       <c r="A184" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>68</v>
@@ -8609,702 +8594,702 @@
     </row>
     <row r="185" spans="1:5" ht="30">
       <c r="A185" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="30">
       <c r="A193" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30">
       <c r="A194" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30">
       <c r="A196" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="30">
       <c r="A197" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="30">
       <c r="A198" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="30">
       <c r="A199" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="30">
       <c r="A200" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="30">
       <c r="A201" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="30">
       <c r="A202" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="30">
       <c r="A203" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="30">
       <c r="A204" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="30">
       <c r="A205" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="30">
       <c r="A206" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="30">
       <c r="A207" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="45">
       <c r="A211" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="45">
       <c r="A212" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="45">
       <c r="A213" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="30">
       <c r="A214" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30">
       <c r="A215" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30">
       <c r="A216" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="30">
       <c r="A217" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30">
       <c r="A218" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="30">
       <c r="A219" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30">
       <c r="A220" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C220" s="19" t="s">
         <v>823</v>
       </c>
+      <c r="C220" s="18" t="s">
+        <v>824</v>
+      </c>
       <c r="D220" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="F220" s="20">
+      <c r="F220" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="30">
       <c r="A221" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C221" s="19" t="s">
         <v>826</v>
       </c>
+      <c r="C221" s="18" t="s">
+        <v>827</v>
+      </c>
       <c r="D221" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="F221" s="20">
+      <c r="F221" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30">
       <c r="A222" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C222" s="19" t="s">
         <v>829</v>
       </c>
+      <c r="C222" s="18" t="s">
+        <v>830</v>
+      </c>
       <c r="D222" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="F222" s="20">
+      <c r="F222" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30">
       <c r="A223" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C223" s="19" t="s">
         <v>832</v>
       </c>
+      <c r="C223" s="18" t="s">
+        <v>833</v>
+      </c>
       <c r="D223" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="20">
+      <c r="F223" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="30">
       <c r="A224" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C224" s="19" t="s">
         <v>835</v>
       </c>
+      <c r="C224" s="18" t="s">
+        <v>836</v>
+      </c>
       <c r="D224" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224" s="20">
+      <c r="F224" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="30">
       <c r="A225" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C225" s="19" t="s">
         <v>839</v>
       </c>
+      <c r="C225" s="18" t="s">
+        <v>840</v>
+      </c>
       <c r="D225" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="F225" s="20">
+      <c r="F225" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="45">
       <c r="A226" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C226" s="19" t="s">
         <v>843</v>
       </c>
+      <c r="C226" s="18" t="s">
+        <v>844</v>
+      </c>
       <c r="D226" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="F226" s="20">
+      <c r="F226" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="45">
       <c r="A227" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="90">
       <c r="A228" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30">
       <c r="A229" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="60">
       <c r="A230" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30">
       <c r="A231" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="30">
       <c r="A232" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F232" s="4">
         <v>45734</v>
@@ -9312,304 +9297,304 @@
     </row>
     <row r="233" spans="1:6" ht="60">
       <c r="A233" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="45">
       <c r="A234" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45">
       <c r="A235" s="6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="45">
       <c r="A236" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="45">
       <c r="A237" s="6" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="45">
       <c r="A238" s="6" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="45">
       <c r="A239" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="45">
       <c r="A240" s="6" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="45">
       <c r="A241" s="6" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="45">
       <c r="A242" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30">
       <c r="A243" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30">
       <c r="A244" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="30">
       <c r="A245" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C245" s="11" t="s">
         <v>919</v>
       </c>
+      <c r="C245" s="10" t="s">
+        <v>920</v>
+      </c>
       <c r="D245" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="30">
       <c r="A246" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="C246" s="11" t="s">
         <v>923</v>
       </c>
+      <c r="C246" s="10" t="s">
+        <v>924</v>
+      </c>
       <c r="D246" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="30">
       <c r="A247" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C247" s="11" t="s">
         <v>927</v>
       </c>
+      <c r="C247" s="10" t="s">
+        <v>928</v>
+      </c>
       <c r="D247" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30">
       <c r="A248" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C248" s="11" t="s">
         <v>931</v>
       </c>
+      <c r="C248" s="10" t="s">
+        <v>932</v>
+      </c>
       <c r="D248" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="30">
       <c r="A249" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30">
       <c r="A250" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30">
       <c r="A251" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="45">
       <c r="A252" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="50.25" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="C253" s="11" t="s">
         <v>951</v>
       </c>
+      <c r="C253" s="10" t="s">
+        <v>952</v>
+      </c>
       <c r="D253" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>102</v>
@@ -9623,10 +9608,10 @@
     </row>
     <row r="255" spans="1:6" ht="30">
       <c r="A255" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>105</v>
@@ -9640,16 +9625,16 @@
     </row>
     <row r="256" spans="1:6" ht="30">
       <c r="A256" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F256" s="4">
         <v>45728</v>
@@ -9657,16 +9642,16 @@
     </row>
     <row r="257" spans="1:6" ht="30">
       <c r="A257" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F257" s="4">
         <v>45728</v>
@@ -9674,16 +9659,16 @@
     </row>
     <row r="258" spans="1:6" ht="30">
       <c r="A258" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F258" s="4">
         <v>45728</v>
@@ -9691,16 +9676,16 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F259" s="4">
         <v>45728</v>
@@ -9708,16 +9693,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F260" s="4">
         <v>45728</v>
@@ -9725,72 +9710,72 @@
     </row>
     <row r="261" spans="1:6" ht="60">
       <c r="A261" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="60">
       <c r="A262" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="60">
       <c r="A263" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="60">
       <c r="A264" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="60">
       <c r="A265" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F265" s="4">
         <v>45728</v>
@@ -9798,226 +9783,226 @@
     </row>
     <row r="266" spans="1:6" ht="75">
       <c r="A266" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="60">
       <c r="A267" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="75">
       <c r="A268" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="75">
       <c r="A269" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="60">
       <c r="A270" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="60">
       <c r="A271" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="60">
       <c r="A272" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="60">
       <c r="A273" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="60">
       <c r="A274" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="75">
       <c r="A275" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="75">
       <c r="A276" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="75">
       <c r="A277" s="6" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="75">
       <c r="A278" s="6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="75">
       <c r="A279" s="6" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="75">
       <c r="A280" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="60">
       <c r="A281" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F281" s="4">
         <v>45737</v>
@@ -10025,30 +10010,30 @@
     </row>
     <row r="282" spans="1:6" ht="60">
       <c r="A282" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="75">
       <c r="A283" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F283" s="4">
         <v>45736</v>
@@ -10056,72 +10041,72 @@
     </row>
     <row r="284" spans="1:6" ht="60">
       <c r="A284" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="60">
       <c r="A285" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="60">
       <c r="A286" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="60">
       <c r="A287" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F288" s="4">
         <v>45741</v>
@@ -10129,16 +10114,16 @@
     </row>
     <row r="289" spans="1:6" ht="30">
       <c r="A289" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F289" s="4">
         <v>45741</v>
@@ -10146,16 +10131,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F290" s="4">
         <v>45741</v>
@@ -10163,16 +10148,16 @@
     </row>
     <row r="291" spans="1:6" ht="30">
       <c r="A291" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F291" s="4">
         <v>45741</v>
@@ -10180,16 +10165,16 @@
     </row>
     <row r="292" spans="1:6" ht="30">
       <c r="A292" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F292" s="4">
         <v>45741</v>
@@ -10197,16 +10182,16 @@
     </row>
     <row r="293" spans="1:6" ht="45">
       <c r="A293" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F293" s="4">
         <v>45741</v>
@@ -10214,16 +10199,16 @@
     </row>
     <row r="294" spans="1:6" ht="45">
       <c r="A294" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F294" s="4">
         <v>45741</v>
@@ -10231,16 +10216,16 @@
     </row>
     <row r="295" spans="1:6" ht="30">
       <c r="A295" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F295" s="4">
         <v>45741</v>
@@ -10248,16 +10233,16 @@
     </row>
     <row r="296" spans="1:6" ht="30">
       <c r="A296" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F296" s="4">
         <v>45741</v>
@@ -10265,16 +10250,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F297" s="4">
         <v>45741</v>
@@ -10282,16 +10267,16 @@
     </row>
     <row r="298" spans="1:6" ht="30">
       <c r="A298" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F298" s="4">
         <v>45741</v>
@@ -10299,16 +10284,16 @@
     </row>
     <row r="299" spans="1:6" ht="30">
       <c r="A299" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F299" s="4">
         <v>45741</v>
@@ -10316,16 +10301,16 @@
     </row>
     <row r="300" spans="1:6" ht="30">
       <c r="A300" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F300" s="4">
         <v>45741</v>
@@ -10333,16 +10318,16 @@
     </row>
     <row r="301" spans="1:6" ht="30">
       <c r="A301" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F301" s="4">
         <v>45741</v>
@@ -10350,16 +10335,16 @@
     </row>
     <row r="302" spans="1:6" ht="30">
       <c r="A302" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F302" s="4">
         <v>45741</v>
@@ -10367,16 +10352,16 @@
     </row>
     <row r="303" spans="1:6" ht="30">
       <c r="A303" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F303" s="4">
         <v>45741</v>
@@ -10384,16 +10369,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F304" s="4">
         <v>45741</v>
@@ -10401,16 +10386,16 @@
     </row>
     <row r="305" spans="1:6" ht="30">
       <c r="A305" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F305" s="4">
         <v>45741</v>
@@ -10418,16 +10403,16 @@
     </row>
     <row r="306" spans="1:6" ht="30">
       <c r="A306" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F306" s="4">
         <v>45741</v>
@@ -10435,16 +10420,16 @@
     </row>
     <row r="307" spans="1:6" ht="30">
       <c r="A307" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F307" s="4">
         <v>45741</v>
@@ -10452,16 +10437,16 @@
     </row>
     <row r="308" spans="1:6" ht="30">
       <c r="A308" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F308" s="4">
         <v>45741</v>
@@ -10469,52 +10454,52 @@
     </row>
     <row r="309" spans="1:6" ht="30">
       <c r="A309" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C309" s="19" t="s">
-        <v>289</v>
+        <v>1150</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E309" s="2"/>
-      <c r="F309" s="20">
+      <c r="F309" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="30">
       <c r="A310" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>293</v>
+        <v>1152</v>
+      </c>
+      <c r="C310" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E310" s="2"/>
-      <c r="F310" s="20">
+      <c r="F310" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="30">
       <c r="A311" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F311" s="4">
         <v>45741</v>
@@ -10522,16 +10507,16 @@
     </row>
     <row r="312" spans="1:6" ht="30">
       <c r="A312" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F312" s="4">
         <v>45741</v>
@@ -10539,16 +10524,16 @@
     </row>
     <row r="313" spans="1:6" ht="30">
       <c r="A313" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F313" s="4">
         <v>45741</v>
@@ -10556,16 +10541,16 @@
     </row>
     <row r="314" spans="1:6" ht="30">
       <c r="A314" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F314" s="4">
         <v>45741</v>
@@ -10573,16 +10558,16 @@
     </row>
     <row r="315" spans="1:6" ht="30">
       <c r="A315" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F315" s="4">
         <v>45741</v>
@@ -10590,16 +10575,16 @@
     </row>
     <row r="316" spans="1:6" ht="45">
       <c r="A316" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="F316" s="4">
         <v>45741</v>
@@ -10607,34 +10592,34 @@
     </row>
     <row r="317" spans="1:6" ht="45">
       <c r="A317" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C317" s="19" t="s">
         <v>1179</v>
       </c>
+      <c r="C317" s="18" t="s">
+        <v>1180</v>
+      </c>
       <c r="D317" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E317" s="2"/>
-      <c r="F317" s="20">
+      <c r="F317" s="19">
         <v>45744</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30">
       <c r="A318" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F318" s="4">
         <v>45741</v>
@@ -10642,16 +10627,16 @@
     </row>
     <row r="319" spans="1:6" ht="30">
       <c r="A319" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F319" s="4">
         <v>45741</v>
@@ -10659,16 +10644,16 @@
     </row>
     <row r="320" spans="1:6" ht="30">
       <c r="A320" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F320" s="4">
         <v>45741</v>
@@ -10676,16 +10661,16 @@
     </row>
     <row r="321" spans="1:6" ht="30">
       <c r="A321" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F321" s="4">
         <v>45741</v>
@@ -10693,16 +10678,16 @@
     </row>
     <row r="322" spans="1:6" ht="30">
       <c r="A322" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F322" s="4">
         <v>45741</v>
@@ -10710,16 +10695,16 @@
     </row>
     <row r="323" spans="1:6" ht="30">
       <c r="A323" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F323" s="4">
         <v>45741</v>
@@ -10727,16 +10712,16 @@
     </row>
     <row r="324" spans="1:6" ht="30">
       <c r="A324" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F324" s="4">
         <v>45741</v>
@@ -10744,16 +10729,16 @@
     </row>
     <row r="325" spans="1:6" ht="30">
       <c r="A325" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F325" s="4">
         <v>45741</v>
@@ -10761,16 +10746,16 @@
     </row>
     <row r="326" spans="1:6" ht="30">
       <c r="A326" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F326" s="4">
         <v>45741</v>
@@ -10778,16 +10763,16 @@
     </row>
     <row r="327" spans="1:6" ht="30">
       <c r="A327" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F327" s="4">
         <v>45741</v>
@@ -10795,16 +10780,16 @@
     </row>
     <row r="328" spans="1:6" ht="30">
       <c r="A328" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F328" s="4">
         <v>45741</v>
@@ -10812,16 +10797,16 @@
     </row>
     <row r="329" spans="1:6" ht="30">
       <c r="A329" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F329" s="4">
         <v>45741</v>
@@ -10829,16 +10814,16 @@
     </row>
     <row r="330" spans="1:6" ht="30">
       <c r="A330" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="F330" s="4">
         <v>45741</v>
@@ -10846,16 +10831,16 @@
     </row>
     <row r="331" spans="1:6" ht="30">
       <c r="A331" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F331" s="4">
         <v>45741</v>
@@ -10863,16 +10848,16 @@
     </row>
     <row r="332" spans="1:6" ht="30">
       <c r="A332" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F332" s="4">
         <v>45741</v>
@@ -10880,16 +10865,16 @@
     </row>
     <row r="333" spans="1:6" ht="30">
       <c r="A333" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F333" s="4">
         <v>45741</v>
@@ -10897,16 +10882,16 @@
     </row>
     <row r="334" spans="1:6" ht="30">
       <c r="A334" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F334" s="4">
         <v>45741</v>
@@ -10914,16 +10899,16 @@
     </row>
     <row r="335" spans="1:6" ht="30">
       <c r="A335" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F335" s="4">
         <v>45741</v>
@@ -10931,16 +10916,16 @@
     </row>
     <row r="336" spans="1:6" ht="30">
       <c r="A336" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F336" s="4">
         <v>45741</v>
@@ -10948,16 +10933,16 @@
     </row>
     <row r="337" spans="1:6" ht="30">
       <c r="A337" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F337" s="4">
         <v>45741</v>
@@ -10965,16 +10950,16 @@
     </row>
     <row r="338" spans="1:6" ht="30">
       <c r="A338" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F338" s="4">
         <v>45741</v>
@@ -10982,16 +10967,16 @@
     </row>
     <row r="339" spans="1:6" ht="30">
       <c r="A339" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F339" s="4">
         <v>45741</v>
@@ -10999,16 +10984,16 @@
     </row>
     <row r="340" spans="1:6" ht="30">
       <c r="A340" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F340" s="4">
         <v>45741</v>
@@ -11016,16 +11001,16 @@
     </row>
     <row r="341" spans="1:6" ht="30">
       <c r="A341" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F341" s="4">
         <v>45741</v>
@@ -11033,16 +11018,16 @@
     </row>
     <row r="342" spans="1:6" ht="30">
       <c r="A342" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F342" s="4">
         <v>45741</v>
@@ -11050,16 +11035,16 @@
     </row>
     <row r="343" spans="1:6" ht="30">
       <c r="A343" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F343" s="4">
         <v>45741</v>
@@ -11067,16 +11052,16 @@
     </row>
     <row r="344" spans="1:6" ht="30">
       <c r="A344" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F344" s="4">
         <v>45741</v>
@@ -11084,16 +11069,16 @@
     </row>
     <row r="345" spans="1:6" ht="30">
       <c r="A345" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F345" s="4">
         <v>45741</v>
@@ -11101,16 +11086,16 @@
     </row>
     <row r="346" spans="1:6" ht="30">
       <c r="A346" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F346" s="4">
         <v>45741</v>
@@ -11118,16 +11103,16 @@
     </row>
     <row r="347" spans="1:6" ht="30">
       <c r="A347" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F347" s="4">
         <v>45741</v>
@@ -11135,16 +11120,16 @@
     </row>
     <row r="348" spans="1:6" ht="30">
       <c r="A348" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F348" s="4">
         <v>45741</v>
@@ -11152,16 +11137,16 @@
     </row>
     <row r="349" spans="1:6" ht="30">
       <c r="A349" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F349" s="4">
         <v>45741</v>
@@ -11169,16 +11154,16 @@
     </row>
     <row r="350" spans="1:6" ht="30">
       <c r="A350" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F350" s="4">
         <v>45741</v>
@@ -11186,16 +11171,16 @@
     </row>
     <row r="351" spans="1:6" ht="30">
       <c r="A351" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F351" s="4">
         <v>45741</v>
@@ -11203,16 +11188,16 @@
     </row>
     <row r="352" spans="1:6" ht="30">
       <c r="A352" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F352" s="4">
         <v>45741</v>
@@ -11220,16 +11205,16 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F353" s="4">
         <v>45741</v>
@@ -11237,16 +11222,16 @@
     </row>
     <row r="354" spans="1:6" ht="30">
       <c r="A354" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F354" s="4">
         <v>45741</v>
@@ -11254,16 +11239,16 @@
     </row>
     <row r="355" spans="1:6" ht="30">
       <c r="A355" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F355" s="4">
         <v>45741</v>
@@ -11295,47 +11280,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -11359,49 +11344,49 @@
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="83.5703125" style="13" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
-    <row r="7" spans="4:4" s="14" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
-      <c r="D7" s="15" t="s">
-        <v>1301</v>
+    <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
+      <c r="D7" s="14" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D8" s="16" t="s">
-        <v>1302</v>
+      <c r="D8" s="15" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="9" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D9" s="17" t="s">
-        <v>1303</v>
+      <c r="D9" s="16" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D10" s="17" t="s">
-        <v>1304</v>
+      <c r="D10" s="16" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D11" s="17" t="s">
-        <v>1305</v>
+      <c r="D11" s="16" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="12" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D12" s="17" t="s">
-        <v>1306</v>
+      <c r="D12" s="16" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="13" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D13" s="17" t="s">
-        <v>1307</v>
+      <c r="D13" s="16" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
-      <c r="D14" s="18" t="s">
-        <v>1308</v>
+      <c r="D14" s="17" t="s">
+        <v>1309</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EMCT\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC783DA3-3987-4EED-BA6F-8C7143C43DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD9320-B382-4D79-8B3F-8CA03ECE7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,9 @@
   <commentList>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{5410BBEF-9F42-4B21-BAA2-A456FBAEEDD8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Not 100% sure what this means.</t>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1313">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -614,32 +614,6 @@
   </si>
   <si>
     <t>step_1__question_2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Do you prefer to use millimetres (mm) or inches (in)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve"> for your measurements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">?&lt;br/&gt; </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Préférez-vous utiliser des millimètres (mm) ou des pouces (in) pour vos mesures ? &lt;br/&gt; </t>
@@ -2371,9 +2345,6 @@
     <t>sidebar_input__change_ceiling_height_to</t>
   </si>
   <si>
-    <t>Change the ceiling height to</t>
-  </si>
-  <si>
     <t>Modifier la hauteur du plafond à</t>
   </si>
   <si>
@@ -2958,9 +2929,6 @@
   </si>
   <si>
     <t>sidebar_input__add_object_lightframe_wall</t>
-  </si>
-  <si>
-    <t>Lightframe wall</t>
   </si>
   <si>
     <t>Sidebar - add object panel - Mass timber wall</t>
@@ -5158,12 +5126,30 @@
   <si>
     <t>[de la suite telle que définie|du compartiment résistant au feu tel que défini]</t>
   </si>
+  <si>
+    <t>Ceiling Height</t>
+  </si>
+  <si>
+    <t>Ceiling Thickness</t>
+  </si>
+  <si>
+    <t>Add Beam</t>
+  </si>
+  <si>
+    <t>Add Column</t>
+  </si>
+  <si>
+    <t>Add Lightframe Wall</t>
+  </si>
+  <si>
+    <t>Add Mass Timber Wall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5227,16 +5213,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5411,12 +5387,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5717,11 +5693,11 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -5731,7 +5707,7 @@
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5765,7 +5741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5779,7 +5755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -5807,7 +5783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -5821,7 +5797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5849,7 +5825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +5839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -5877,7 +5853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -5891,7 +5867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5905,7 +5881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -5919,7 +5895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5933,7 +5909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -5947,7 +5923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5964,7 +5940,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5981,7 +5957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -5995,7 +5971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -6009,7 +5985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="345">
+    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6026,7 +6002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="300">
+    <row r="21" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -6043,7 +6019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -6057,7 +6033,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120">
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -6074,7 +6050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6088,7 +6064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -6102,7 +6078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -6116,7 +6092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -6130,7 +6106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -6138,136 +6114,136 @@
         <v>108</v>
       </c>
       <c r="C28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="7" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="F34" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="7" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="F36" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>75</v>
@@ -6276,539 +6252,539 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.75">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="7" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F40" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F41" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F42" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="F43" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="F44" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="F45" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="F46" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="F47" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="F48" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="45">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="F49" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="F50" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F51" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="C52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="F52" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="F53" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="C54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="F54" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="F55" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="F56" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="F57" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="F58" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="F59" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="F60" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="F61" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="F62" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="F63" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="F64" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="F65" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="F66" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="F67" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="F68" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -6817,281 +6793,281 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="F70" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="F71" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="F72" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="F73" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="F74" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="D75" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="F75" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="D76" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="F76" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="F77" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="F78" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="F79" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="F80" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="F81" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="F82" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="D83" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="F83" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="F84" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D85" s="7" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="30">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -7100,2501 +7076,2501 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="409.5">
+    <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="D88" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.5">
+    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="225">
+    <row r="90" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D91" s="7" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="30">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D92" s="7" t="s">
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D93" s="7" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D94" s="7" t="s">
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="30">
-      <c r="A95" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D95" s="7" t="s">
+    </row>
+    <row r="96" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="330">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D97" s="7" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="30">
-      <c r="A98" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D98" s="7" t="s">
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="30">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D99" s="7" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D100" s="7" t="s">
+    </row>
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="30">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D101" s="7" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="30">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D102" s="7" t="s">
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="30">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="30">
-      <c r="A104" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="30">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="7" t="s">
+    </row>
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="30">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="7" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="30">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D107" s="7" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="30">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D108" s="7" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="30">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D109" s="7" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D110" s="7" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D111" s="7" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D112" s="7" t="s">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D113" s="7" t="s">
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="30">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D114" s="7" t="s">
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="30">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="F116" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="F117" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="F118" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F119" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="F120" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="D121" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D121" s="9" t="s">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D122" s="7" t="s">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="D123" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F123" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="D124" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D125" s="7" t="s">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D127" s="7" t="s">
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="30">
-      <c r="A128" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="7" t="s">
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="30">
-      <c r="A129" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D129" s="7" t="s">
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="30">
-      <c r="A130" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C130" s="2" t="s">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="B131" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="D131" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C131" s="2" t="s">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="B132" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="D132" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C132" s="2" t="s">
+    </row>
+    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="B133" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="60">
-      <c r="A133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C133" s="2" t="s">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="B134" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="D134" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C134" s="2" t="s">
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="B135" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="30">
-      <c r="A135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="D135" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="2" t="s">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="B136" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="D136" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C136" s="2" t="s">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="B137" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C137" s="2" t="s">
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="B138" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="30">
-      <c r="A138" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="D138" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="F138" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="F139" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45">
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="D140" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="F140" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="45">
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="D141" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="F141" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="45">
+    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="D142" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90">
+    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="D143" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="135">
+    <row r="144" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="D144" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="135">
+    <row r="145" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="D145" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="D146" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="45">
+    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="D147" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C147" s="2" t="s">
+    </row>
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="B148" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="45">
-      <c r="A148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="D148" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="F148" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="D149" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="F149" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="D150" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="F150" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="D151" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="F151" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="D152" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="F152" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="D153" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="F153" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30">
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="D154" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="F154" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30">
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="D155" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="F155" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="45">
+    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="D156" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C156" s="2" t="s">
+    </row>
+    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="B157" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="75">
-      <c r="A157" s="2" t="s">
+      <c r="C157" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="D157" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C157" s="8" t="s">
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="B158" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="30">
-      <c r="A158" s="2" t="s">
+      <c r="C158" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="D158" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C158" s="8" t="s">
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="B159" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="30">
-      <c r="A159" s="2" t="s">
+      <c r="C159" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="D159" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C159" s="8" t="s">
+    </row>
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="B160" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="60">
-      <c r="A160" s="2" t="s">
+      <c r="C160" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="D160" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C160" s="8" t="s">
+    </row>
+    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="B161" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="45">
-      <c r="A161" s="2" t="s">
+      <c r="C161" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="D161" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C161" s="8" t="s">
+    </row>
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="B162" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="30">
-      <c r="A162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="D162" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C162" s="2" t="s">
+    </row>
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="B163" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="30">
-      <c r="A163" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D163" s="7" t="s">
+      <c r="B164" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="30">
-      <c r="A164" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="D164" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C164" s="2" t="s">
+    </row>
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="B165" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="45">
-      <c r="A165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="D165" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="C165" s="2" t="s">
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="B166" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="30">
-      <c r="A166" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="D166" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C166" s="2" t="s">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="B167" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="D167" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C167" s="2" t="s">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="B168" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="D168" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="C168" s="2" t="s">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="B169" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="30">
-      <c r="A171" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="30">
-      <c r="A172" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D172" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="D173" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F173" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F174" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="210">
+    <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="105">
+    <row r="176" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="195">
+    <row r="177" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="165">
+    <row r="178" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>683</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="60">
+    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="75">
+    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="180">
+    <row r="181" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="225">
+    <row r="182" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="210">
+    <row r="183" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="270">
+    <row r="184" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D184" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="30">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B185" s="2" t="s">
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="C186" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="30">
-      <c r="A186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2" t="s">
+      <c r="D187" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B187" s="2" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="C188" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2" t="s">
+      <c r="D188" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B188" s="2" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="C189" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2" t="s">
+      <c r="D189" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="B189" s="2" t="s">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="C190" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2" t="s">
+      <c r="D190" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="B190" s="2" t="s">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="C191" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2" t="s">
+      <c r="D191" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B191" s="2" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="C192" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2" t="s">
+      <c r="D192" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B192" s="2" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="C193" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="30">
-      <c r="A193" s="2" t="s">
+      <c r="D193" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="B193" s="2" t="s">
+    </row>
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="C194" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="30">
-      <c r="A194" s="2" t="s">
+      <c r="D194" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="B194" s="2" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="C195" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2" t="s">
+      <c r="D195" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="B195" s="2" t="s">
+    </row>
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="C196" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="30">
-      <c r="A196" s="2" t="s">
+      <c r="D196" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B196" s="2" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="C197" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="30">
-      <c r="A197" s="2" t="s">
+      <c r="D197" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B197" s="2" t="s">
+    </row>
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30">
-      <c r="A198" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B198" s="2" t="s">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D199" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="30">
-      <c r="A199" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B199" s="2" t="s">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30">
-      <c r="A200" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B200" s="2" t="s">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D201" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30">
-      <c r="A201" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B201" s="2" t="s">
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="30">
-      <c r="A202" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B202" s="2" t="s">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="30">
-      <c r="A203" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B203" s="2" t="s">
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D204" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="30">
-      <c r="A204" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B204" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D205" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="30">
-      <c r="A205" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B205" s="2" t="s">
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="C206" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="30">
-      <c r="A206" s="2" t="s">
+      <c r="D206" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D208" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="2" t="s">
+      <c r="D209" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B209" s="2" t="s">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="C210" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="2" t="s">
+      <c r="D210" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="B210" s="2" t="s">
+    </row>
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="C211" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="45">
-      <c r="A211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="45">
-      <c r="A212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="45">
-      <c r="A213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="30">
-      <c r="A214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C215" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="30">
-      <c r="A215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="30">
-      <c r="A216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="30">
-      <c r="A217" s="2" t="s">
+      <c r="D217" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B217" s="2" t="s">
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="C218" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="30">
-      <c r="A218" s="2" t="s">
+      <c r="D218" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B218" s="2" t="s">
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="C219" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="2" t="s">
+      <c r="D219" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="B219" s="2" t="s">
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="C220" s="18" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="30">
-      <c r="A220" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>824</v>
-      </c>
       <c r="D220" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30">
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>837</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30">
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>841</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="45">
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>845</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="45">
+    <row r="227" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="B227" s="2" t="s">
+    </row>
+    <row r="228" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="B228" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="C228" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="90">
-      <c r="A228" s="2" t="s">
+      <c r="D228" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B228" s="2" t="s">
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="C229" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="30">
-      <c r="A229" s="2" t="s">
+      <c r="D229" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="B229" s="2" t="s">
+    </row>
+    <row r="230" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="C230" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="60">
-      <c r="A230" s="2" t="s">
+      <c r="D230" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="B230" s="2" t="s">
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="C231" s="8" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="30">
-      <c r="A231" s="2" t="s">
+      <c r="D231" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B231" s="2" t="s">
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="B232" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="30">
-      <c r="A232" s="2" t="s">
+      <c r="D232" s="7" t="s">
         <v>866</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>869</v>
       </c>
       <c r="F232" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="60">
+    <row r="233" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B233" s="2" t="s">
+    </row>
+    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="B234" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="45">
-      <c r="A234" s="6" t="s">
+      <c r="D234" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="B234" s="2" t="s">
+    </row>
+    <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="B235" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="C235" s="8" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="45">
-      <c r="A235" s="6" t="s">
+      <c r="D235" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="B235" s="2" t="s">
+    </row>
+    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="B236" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="C236" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="45">
-      <c r="A236" s="2" t="s">
+      <c r="D236" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="B236" s="2" t="s">
+    </row>
+    <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="C237" s="8" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="45">
-      <c r="A237" s="6" t="s">
+      <c r="D237" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="B237" s="2" t="s">
+    </row>
+    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="B238" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="C238" s="8" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="45">
-      <c r="A238" s="6" t="s">
+      <c r="D238" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="B238" s="2" t="s">
+    </row>
+    <row r="239" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="B239" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="C239" s="8" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="45">
-      <c r="A239" s="2" t="s">
+      <c r="D239" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="B239" s="2" t="s">
+    </row>
+    <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="B240" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="C240" s="8" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="45">
-      <c r="A240" s="6" t="s">
+      <c r="D240" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="B240" s="2" t="s">
+    </row>
+    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="B241" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="C241" s="8" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="45">
-      <c r="A241" s="6" t="s">
+      <c r="D241" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="B241" s="2" t="s">
+    </row>
+    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="B242" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="C242" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="45">
-      <c r="A242" s="2" t="s">
+      <c r="D242" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="B242" s="2" t="s">
+    </row>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="C243" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="30">
-      <c r="A243" s="2" t="s">
+      <c r="D243" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B243" s="2" t="s">
+    </row>
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="C244" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="30">
-      <c r="A244" s="2" t="s">
+      <c r="D244" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="B244" s="2" t="s">
+    </row>
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="C245" s="10" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="30">
-      <c r="A245" s="2" t="s">
+      <c r="D245" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="B245" s="2" t="s">
+    </row>
+    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C245" s="10" t="s">
+      <c r="B246" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="C246" s="10" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="30">
-      <c r="A246" s="2" t="s">
+      <c r="D246" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="B246" s="2" t="s">
+    </row>
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C246" s="10" t="s">
+      <c r="B247" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="C247" s="10" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="30">
-      <c r="A247" s="2" t="s">
+      <c r="D247" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="B247" s="2" t="s">
+    </row>
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="B248" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="C248" s="10" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="30">
-      <c r="A248" s="2" t="s">
+      <c r="D248" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="B248" s="2" t="s">
+    </row>
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C248" s="10" t="s">
+      <c r="B249" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="C249" s="8" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="30">
-      <c r="A249" s="2" t="s">
+      <c r="D249" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="B249" s="2" t="s">
+    </row>
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="B250" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="C250" s="8" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="30">
-      <c r="A250" s="2" t="s">
+      <c r="D250" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="B250" s="2" t="s">
+    </row>
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="B251" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D250" s="7" t="s">
+      <c r="C251" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="30">
-      <c r="A251" s="2" t="s">
+      <c r="D251" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="B251" s="2" t="s">
+    </row>
+    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="D251" s="7" t="s">
+      <c r="C252" s="2" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="45">
-      <c r="A252" s="2" t="s">
+      <c r="D252" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="B252" s="2" t="s">
+    </row>
+    <row r="253" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="C253" s="10" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A253" s="2" t="s">
+      <c r="D253" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="B253" s="2" t="s">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C253" s="10" t="s">
+      <c r="B254" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>102</v>
@@ -9606,12 +9582,12 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30">
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>105</v>
@@ -9623,1632 +9599,1632 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30">
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F256" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30">
+    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F257" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30">
+    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>963</v>
-      </c>
       <c r="C258" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F258" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>964</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>967</v>
       </c>
       <c r="F259" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D260" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>971</v>
       </c>
       <c r="F260" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="60">
+    <row r="261" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D261" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B261" s="2" t="s">
+    </row>
+    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="D261" s="7" t="s">
+      <c r="C262" s="2" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="60">
-      <c r="A262" s="2" t="s">
+      <c r="D262" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B262" s="2" t="s">
+    </row>
+    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="60">
-      <c r="A263" s="2" t="s">
+      <c r="D263" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B263" s="2" t="s">
+    </row>
+    <row r="264" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="B264" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="C264" s="2" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="60">
-      <c r="A264" s="2" t="s">
+      <c r="D264" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="B264" s="2" t="s">
+    </row>
+    <row r="265" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="C265" s="2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="60">
-      <c r="A265" s="2" t="s">
+      <c r="D265" s="7" t="s">
         <v>988</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>991</v>
       </c>
       <c r="F265" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="75">
+    <row r="266" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D266" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="B266" s="2" t="s">
+    </row>
+    <row r="267" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="60">
-      <c r="A267" s="2" t="s">
+      <c r="D267" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="B267" s="2" t="s">
+    </row>
+    <row r="268" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="B268" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="C268" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="75">
-      <c r="A268" s="2" t="s">
+      <c r="D268" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="B268" s="2" t="s">
+    </row>
+    <row r="269" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="C269" s="2" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="75">
-      <c r="A269" s="2" t="s">
+      <c r="D269" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="B269" s="2" t="s">
+    </row>
+    <row r="270" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="B270" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="C270" s="2" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="60">
-      <c r="A270" s="2" t="s">
+      <c r="D270" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="B270" s="2" t="s">
+    </row>
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="C271" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="60">
-      <c r="A271" s="2" t="s">
+      <c r="D271" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="B271" s="2" t="s">
+    </row>
+    <row r="272" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="C272" s="2" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="60">
-      <c r="A272" s="2" t="s">
+      <c r="D272" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="B272" s="2" t="s">
+    </row>
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="C273" s="2" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="60">
-      <c r="A273" s="2" t="s">
+      <c r="D273" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="B273" s="2" t="s">
+    </row>
+    <row r="274" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="D273" s="7" t="s">
+      <c r="C274" s="2" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="60">
-      <c r="A274" s="2" t="s">
+      <c r="D274" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="B274" s="2" t="s">
+    </row>
+    <row r="275" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="D274" s="7" t="s">
+      <c r="C275" s="2" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="75">
-      <c r="A275" s="2" t="s">
+      <c r="D275" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="B275" s="2" t="s">
+    </row>
+    <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="B276" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="D275" s="7" t="s">
+      <c r="C276" s="2" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="75">
-      <c r="A276" s="2" t="s">
+      <c r="D276" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="B276" s="2" t="s">
+    </row>
+    <row r="277" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="B277" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="D276" s="7" t="s">
+      <c r="C277" s="2" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="75">
-      <c r="A277" s="6" t="s">
+      <c r="D277" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="B277" s="2" t="s">
+    </row>
+    <row r="278" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="B278" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="C278" s="2" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="75">
-      <c r="A278" s="6" t="s">
+      <c r="D278" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="B278" s="2" t="s">
+    </row>
+    <row r="279" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="B279" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="C279" s="2" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="75">
-      <c r="A279" s="6" t="s">
+      <c r="D279" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="B279" s="2" t="s">
+    </row>
+    <row r="280" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="B280" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="75">
-      <c r="A280" s="2" t="s">
+      <c r="D280" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="B280" s="2" t="s">
+    </row>
+    <row r="281" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="B281" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="D280" s="7" t="s">
+      <c r="C281" s="2" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="60">
-      <c r="A281" s="2" t="s">
+      <c r="D281" s="7" t="s">
         <v>1052</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D281" s="7" t="s">
-        <v>1055</v>
       </c>
       <c r="F281" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="60">
+    <row r="282" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D282" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="B282" s="2" t="s">
+    </row>
+    <row r="283" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="B283" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="D282" s="7" t="s">
+      <c r="C283" s="2" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="75">
-      <c r="A283" s="2" t="s">
+      <c r="D283" s="7" t="s">
         <v>1060</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D283" s="7" t="s">
-        <v>1063</v>
       </c>
       <c r="F283" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="60">
+    <row r="284" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D284" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="B284" s="2" t="s">
+    </row>
+    <row r="285" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="C285" s="2" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="60">
-      <c r="A285" s="2" t="s">
+      <c r="D285" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="B285" s="2" t="s">
+    </row>
+    <row r="286" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="C286" s="2" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="60">
-      <c r="A286" s="2" t="s">
+      <c r="D286" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="B286" s="2" t="s">
+    </row>
+    <row r="287" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="B287" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="C287" s="2" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="60">
-      <c r="A287" s="2" t="s">
+      <c r="D287" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="B287" s="2" t="s">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="B288" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D287" s="7" t="s">
+      <c r="C288" s="2" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="2" t="s">
+      <c r="D288" s="7" t="s">
         <v>1080</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D288" s="7" t="s">
-        <v>1083</v>
       </c>
       <c r="F288" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30">
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D289" s="9" t="s">
         <v>1084</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>1087</v>
       </c>
       <c r="F289" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D290" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D290" s="7" t="s">
-        <v>1091</v>
       </c>
       <c r="F290" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="30">
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C291" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D291" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D291" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="F291" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C292" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D292" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="F292" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45">
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D293" s="7" t="s">
         <v>1096</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>1099</v>
       </c>
       <c r="F293" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45">
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D294" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>1103</v>
       </c>
       <c r="F294" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30">
+    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D295" s="7" t="s">
         <v>1104</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>1107</v>
       </c>
       <c r="F295" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="30">
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D296" s="7" t="s">
         <v>1108</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>1111</v>
       </c>
       <c r="F296" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D297" s="7" t="s">
         <v>1112</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>1115</v>
       </c>
       <c r="F297" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D298" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="F298" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F299" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30">
+    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C300" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D300" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="D300" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="F300" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30">
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C301" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D301" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D301" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="F301" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30">
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F302" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D303" s="7" t="s">
         <v>1128</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D303" s="7" t="s">
-        <v>1131</v>
       </c>
       <c r="F303" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D304" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D304" s="7" t="s">
-        <v>1135</v>
       </c>
       <c r="F304" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C305" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D305" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="F305" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F306" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30">
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D307" s="7" t="s">
         <v>1141</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D307" s="7" t="s">
-        <v>1144</v>
       </c>
       <c r="F307" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30">
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D308" s="7" t="s">
         <v>1145</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D308" s="7" t="s">
-        <v>1148</v>
       </c>
       <c r="F308" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30">
+    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C309" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D309" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D309" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30">
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D311" s="7" t="s">
         <v>1154</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D311" s="7" t="s">
-        <v>1157</v>
       </c>
       <c r="F311" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D312" s="7" t="s">
         <v>1158</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D312" s="7" t="s">
-        <v>1161</v>
       </c>
       <c r="F312" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D313" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D313" s="7" t="s">
-        <v>1165</v>
       </c>
       <c r="F313" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D314" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D314" s="7" t="s">
-        <v>1169</v>
       </c>
       <c r="F314" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30">
+    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D315" s="7" t="s">
         <v>1170</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D315" s="7" t="s">
-        <v>1173</v>
       </c>
       <c r="F315" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="45">
+    <row r="316" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D316" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D316" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="F316" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="45">
+    <row r="317" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="30">
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D318" s="7" t="s">
         <v>1181</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D318" s="7" t="s">
-        <v>1184</v>
       </c>
       <c r="F318" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D319" s="7" t="s">
         <v>1185</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D319" s="7" t="s">
-        <v>1188</v>
       </c>
       <c r="F319" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30">
+    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C320" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D320" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D320" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F320" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D321" s="7" t="s">
         <v>1191</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D321" s="7" t="s">
-        <v>1194</v>
       </c>
       <c r="F321" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30">
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F322" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F323" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30">
+    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F324" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="30">
+    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D325" s="7" t="s">
         <v>1203</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D325" s="7" t="s">
-        <v>1206</v>
       </c>
       <c r="F325" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30">
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D326" s="7" t="s">
         <v>1207</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D326" s="7" t="s">
-        <v>1210</v>
       </c>
       <c r="F326" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D327" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>1214</v>
       </c>
       <c r="F327" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D328" s="7" t="s">
         <v>1215</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D328" s="7" t="s">
-        <v>1218</v>
       </c>
       <c r="F328" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="30">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D329" s="7" t="s">
         <v>1219</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D329" s="7" t="s">
-        <v>1222</v>
       </c>
       <c r="F329" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="30">
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D330" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D330" s="7" t="s">
-        <v>1226</v>
       </c>
       <c r="F330" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="30">
+    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F331" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F332" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C333" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D333" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="D333" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="F333" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C334" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D334" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="D334" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="F334" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D335" s="7" t="s">
         <v>1235</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D335" s="7" t="s">
-        <v>1238</v>
       </c>
       <c r="F335" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="30">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D336" s="7" t="s">
         <v>1239</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D336" s="7" t="s">
-        <v>1242</v>
       </c>
       <c r="F336" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="30">
+    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D337" s="7" t="s">
         <v>1243</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D337" s="7" t="s">
-        <v>1246</v>
       </c>
       <c r="F337" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="30">
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D338" s="7" t="s">
         <v>1247</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D338" s="7" t="s">
-        <v>1250</v>
       </c>
       <c r="F338" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D339" s="7" t="s">
         <v>1251</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D339" s="7" t="s">
-        <v>1254</v>
       </c>
       <c r="F339" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D340" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D340" s="7" t="s">
-        <v>1258</v>
       </c>
       <c r="F340" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30">
+    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F341" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30">
+    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D342" s="7" t="s">
         <v>1261</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D342" s="7" t="s">
-        <v>1264</v>
       </c>
       <c r="F342" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="30">
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F343" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="30">
+    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F344" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F345" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F346" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F347" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30">
+    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F348" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="30">
+    <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F349" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="30">
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="F350" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="F351" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="30">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F352" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F353" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30">
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F354" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="30">
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F355" s="4">
         <v>45741</v>
@@ -11273,54 +11249,54 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="138" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>1298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -11340,7 +11316,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
@@ -11348,45 +11324,45 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
-    <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
+    <row r="6" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="15" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="16" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D8" s="15" t="s">
+    <row r="11" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="16" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="9" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D9" s="16" t="s">
+    <row r="12" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D10" s="16" t="s">
+    <row r="13" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="16" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="11" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D11" s="16" t="s">
+    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
         <v>1306</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D12" s="16" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" ht="31.15" customHeight="1">
-      <c r="D13" s="16" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
-      <c r="D14" s="17" t="s">
-        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -11686,15 +11662,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
+    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
+    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EMCT\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD9320-B382-4D79-8B3F-8CA03ECE7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6BC9AC-24D0-4EC3-9741-D964B0E7FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,9 @@
   <commentList>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{5410BBEF-9F42-4B21-BAA2-A456FBAEEDD8}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Not 100% sure what this means.</t>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1310">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -614,6 +614,32 @@
   </si>
   <si>
     <t>step_1__question_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Do you prefer to use millimetres (mm) or inches (in)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve"> for your measurements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">?&lt;br/&gt; </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Préférez-vous utiliser des millimètres (mm) ou des pouces (in) pour vos mesures ? &lt;br/&gt; </t>
@@ -1900,15 +1926,14 @@
      Once you are done, click on the white Go Back button.
     &lt;/p&gt;
     &lt;p&gt;
-     &lt;b&gt;Don't forget to click on the yellow Apply button to finalize your edits.&lt;/b&gt;
+     &lt;b&gt;Don't forget to click on the Apply button to finalize your edits.&lt;/b&gt;
     &lt;/p&gt;
     &lt;p&gt;
      Hint: If you have a hard-time seeing the object, trying zooming in or out.
     &lt;/p&gt;</t>
   </si>
   <si>
-    <r>
-      <t>&lt;p&gt;
+    <t>&lt;p&gt;
      Utilisez l'espace de dessin à droite pour modifier la zone d'encapsulation de l'élément de bois de masse.
     &lt;/p&gt;
     &lt;p&gt;
@@ -1918,53 +1943,14 @@
      Vous pouvez effectuer cette opération plusieurs fois pour fermer plusieurs zones.
     &lt;/p&gt;
     &lt;p&gt;
-     Une fois que vous avez terminé, cliquez sur le bouto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n blanc Retour</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
+     Une fois que vous avez terminé, cliquez sur le bouton blanc Retour.
     &lt;/p&gt;
     &lt;p&gt;
-     &lt;N'oubliez pas de cliquer sur le bouton jau</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ne Appliquer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour finaliser vos modifications.&lt;/b&gt;
+     &lt;N'oubliez pas de cliquer sur le bouton Appliquer pour finaliser vos modifications.&lt;/b&gt;
     &lt;/p&gt;
     &lt;p&gt;
      Conseil : si vous avez du mal à voir l'objet, essayez de faire un zoom avant ou arrière.
     &lt;/p&gt;</t>
-    </r>
   </si>
   <si>
     <t>Sidebar for encapsulation drawing edit - moving the point</t>
@@ -2343,6 +2329,9 @@
   </si>
   <si>
     <t>sidebar_input__change_ceiling_height_to</t>
+  </si>
+  <si>
+    <t>Change the ceiling height to</t>
   </si>
   <si>
     <t>Modifier la hauteur du plafond à</t>
@@ -2929,6 +2918,9 @@
   </si>
   <si>
     <t>sidebar_input__add_object_lightframe_wall</t>
+  </si>
+  <si>
+    <t>Lightframe wall</t>
   </si>
   <si>
     <t>Sidebar - add object panel - Mass timber wall</t>
@@ -5126,30 +5118,12 @@
   <si>
     <t>[de la suite telle que définie|du compartiment résistant au feu tel que défini]</t>
   </si>
-  <si>
-    <t>Ceiling Height</t>
-  </si>
-  <si>
-    <t>Ceiling Thickness</t>
-  </si>
-  <si>
-    <t>Add Beam</t>
-  </si>
-  <si>
-    <t>Add Column</t>
-  </si>
-  <si>
-    <t>Add Lightframe Wall</t>
-  </si>
-  <si>
-    <t>Add Mass Timber Wall</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5213,6 +5187,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5387,12 +5371,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5693,11 +5677,11 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -5707,7 +5691,7 @@
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5741,7 +5725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5755,7 +5739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5769,7 +5753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -5783,7 +5767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -5797,7 +5781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -5811,7 +5795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -5825,7 +5809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -5839,7 +5823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -5853,7 +5837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -5867,7 +5851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5881,7 +5865,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -5895,7 +5879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5909,7 +5893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -5923,7 +5907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5940,7 +5924,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="409.5">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5957,7 +5941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -5971,7 +5955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -5985,7 +5969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="345">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6002,7 +5986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="300">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -6019,7 +6003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6017,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="120">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -6050,7 +6034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6064,7 +6048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -6078,7 +6062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -6092,7 +6076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -6106,7 +6090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -6114,136 +6098,136 @@
         <v>108</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>75</v>
@@ -6252,539 +6236,539 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30.75">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F40" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F41" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F42" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F43" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F46" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="45">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F48" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="45">
       <c r="A49" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="45">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F50" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30">
       <c r="A51" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F52" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F53" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="45">
       <c r="A54" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="60">
       <c r="A55" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F55" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F56" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="45">
       <c r="A58" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F58" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45">
       <c r="A59" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F59" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="60">
       <c r="A60" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F60" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30">
       <c r="A61" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F61" s="4">
         <v>45740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30">
       <c r="A63" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F63" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="30">
       <c r="A64" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F64" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30">
       <c r="A65" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F65" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30">
       <c r="A67" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F67" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -6793,281 +6777,281 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="30">
       <c r="A70" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F70" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30">
       <c r="A72" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="30">
       <c r="A73" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F73" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45">
       <c r="A74" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60">
       <c r="A76" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F76" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30">
       <c r="A77" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F77" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30">
       <c r="A78" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F78" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30">
       <c r="A79" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30">
       <c r="A80" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F80" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30">
       <c r="A81" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F81" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45">
       <c r="A82" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F82" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="45">
       <c r="A83" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F83" s="4">
         <v>45744</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="30">
       <c r="A84" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="30">
       <c r="A85" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30">
       <c r="A86" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -7076,2501 +7060,2501 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="225">
       <c r="A90" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="30">
       <c r="A91" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30">
       <c r="A92" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30">
       <c r="A94" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30">
       <c r="A95" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="305.25">
       <c r="A96" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="30">
       <c r="A97" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30">
       <c r="A98" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30">
       <c r="A99" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30">
       <c r="A100" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30">
       <c r="A101" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30">
       <c r="A102" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30">
       <c r="A103" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30">
       <c r="A104" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30">
       <c r="A105" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30">
       <c r="A106" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30">
       <c r="A107" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30">
       <c r="A108" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30">
       <c r="A109" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30">
+      <c r="A114" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30">
+      <c r="A115" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="D115" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" ht="30">
       <c r="A116" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F116" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30">
       <c r="A117" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F117" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F118" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="45">
       <c r="A119" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F119" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="45">
       <c r="A120" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F120" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F123" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30">
       <c r="A128" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30">
       <c r="A129" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30">
       <c r="A130" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1307</v>
+        <v>499</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="60">
       <c r="A133" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30">
       <c r="A135" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1308</v>
+        <v>527</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30">
       <c r="A138" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F138" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F139" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F140" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="45">
       <c r="A141" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F141" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="45">
       <c r="A142" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="90">
       <c r="A143" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="135">
       <c r="A144" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="135">
       <c r="A145" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="60">
       <c r="A146" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="45">
       <c r="A147" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="45">
       <c r="A148" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F148" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F149" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="30">
       <c r="A150" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F150" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F151" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30">
       <c r="A152" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F152" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="30">
       <c r="A153" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F153" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="30">
       <c r="A154" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F154" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="30">
       <c r="A155" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F155" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="45">
       <c r="A156" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="75">
       <c r="A157" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30">
       <c r="A158" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30">
       <c r="A159" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="60">
       <c r="A160" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="45">
       <c r="A161" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30">
       <c r="A162" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30">
       <c r="A163" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30">
       <c r="A164" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45">
       <c r="A165" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30">
       <c r="A166" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1309</v>
+        <v>451</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1310</v>
+        <v>455</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30">
       <c r="A171" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1311</v>
+        <v>658</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30">
       <c r="A172" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1312</v>
+        <v>661</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F173" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F174" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="210">
       <c r="A175" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="105">
       <c r="A176" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="195">
       <c r="A177" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="165">
       <c r="A178" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="60">
       <c r="A179" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="75">
       <c r="A180" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="180">
       <c r="A181" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="225">
       <c r="A182" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="210">
       <c r="A183" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="270">
       <c r="A184" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="30">
       <c r="A185" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30">
       <c r="A186" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30">
       <c r="A193" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="30">
+      <c r="A194" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="30">
+      <c r="A196" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="30">
+      <c r="A197" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="30">
+      <c r="A198" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="30">
+      <c r="A199" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="30">
+      <c r="A200" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="30">
+      <c r="A201" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="30">
+      <c r="A202" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="30">
+      <c r="A203" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30">
+      <c r="A204" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="D193" s="7" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D197" s="7" t="s">
+    </row>
+    <row r="205" spans="1:4" ht="30">
+      <c r="A205" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="B205" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="30">
       <c r="A206" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30">
       <c r="A207" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="45">
       <c r="A211" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="45">
       <c r="A212" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="45">
       <c r="A213" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="30">
       <c r="A214" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30">
       <c r="A215" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30">
       <c r="A216" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30">
       <c r="A217" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30">
       <c r="A218" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30">
       <c r="A219" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30">
       <c r="A220" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="30">
       <c r="A221" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30">
       <c r="A222" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30">
       <c r="A223" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30">
       <c r="A224" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="30">
       <c r="A225" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="45">
       <c r="A226" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="45">
       <c r="A227" s="6" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="90">
       <c r="A228" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30">
       <c r="A229" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="60">
       <c r="A230" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30">
       <c r="A231" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30">
       <c r="A232" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="F232" s="4">
         <v>45734</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="60">
       <c r="A233" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="45">
       <c r="A234" s="6" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="45">
       <c r="A235" s="6" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="45">
       <c r="A236" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="45">
       <c r="A237" s="6" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="45">
       <c r="A238" s="6" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="45">
       <c r="A239" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="45">
       <c r="A240" s="6" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="45">
       <c r="A241" s="6" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="45">
       <c r="A242" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="30">
       <c r="A243" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="30">
       <c r="A244" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="30">
       <c r="A245" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="30">
       <c r="A246" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="30">
       <c r="A247" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="30">
       <c r="A248" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="30">
       <c r="A249" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="30">
       <c r="A250" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="30">
       <c r="A251" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="45">
       <c r="A252" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="50.25" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>102</v>
@@ -9582,12 +9566,12 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="30">
       <c r="A255" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>105</v>
@@ -9599,1632 +9583,1632 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="30">
       <c r="A256" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F256" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="30">
       <c r="A257" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F257" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="30">
       <c r="A258" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F258" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F259" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F260" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="60">
       <c r="A261" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="60">
       <c r="A262" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="60">
       <c r="A263" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="60">
       <c r="A264" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="60">
       <c r="A265" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F265" s="4">
         <v>45728</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="75">
       <c r="A266" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="60">
       <c r="A267" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="75">
       <c r="A268" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="75">
       <c r="A269" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="60">
       <c r="A270" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="60">
       <c r="A271" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="60">
       <c r="A272" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="60">
       <c r="A273" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="60">
       <c r="A274" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="75">
       <c r="A275" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="75">
       <c r="A276" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="75">
       <c r="A277" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="75">
       <c r="A278" s="6" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="75">
       <c r="A279" s="6" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="75">
       <c r="A280" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="60">
       <c r="A281" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F281" s="4">
         <v>45737</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="60">
       <c r="A282" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="75">
       <c r="A283" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F283" s="4">
         <v>45736</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="60">
       <c r="A284" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="60">
       <c r="A285" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="60">
       <c r="A286" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="60">
       <c r="A287" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F288" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="30">
       <c r="A289" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F289" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="F290" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="30">
       <c r="A291" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F291" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30">
       <c r="A292" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F292" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="45">
       <c r="A293" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F293" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="45">
       <c r="A294" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F294" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="30">
       <c r="A295" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F295" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="30">
       <c r="A296" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F296" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="F297" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30">
       <c r="A298" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F298" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30">
       <c r="A299" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F299" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="30">
       <c r="A300" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F300" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="30">
       <c r="A301" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F301" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="30">
       <c r="A302" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="F302" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30">
       <c r="A303" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="F303" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F304" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30">
       <c r="A305" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F305" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30">
       <c r="A306" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="F306" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="30">
       <c r="A307" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F307" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="30">
       <c r="A308" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F308" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="30">
       <c r="A309" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30">
       <c r="A310" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="30">
       <c r="A311" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F311" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="30">
       <c r="A312" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="F312" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30">
       <c r="A313" s="2" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F313" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30">
       <c r="A314" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="F314" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="30">
       <c r="A315" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="F315" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="45">
       <c r="A316" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F316" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="45">
       <c r="A317" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="19">
         <v>45744</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="30">
       <c r="A318" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="F318" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30">
       <c r="A319" s="2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="F319" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="30">
       <c r="A320" s="2" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F320" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30">
       <c r="A321" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="F321" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="30">
       <c r="A322" s="2" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="F322" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="30">
       <c r="A323" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F323" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="30">
       <c r="A324" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="F324" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="30">
       <c r="A325" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="F325" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="30">
       <c r="A326" s="2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="F326" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30">
       <c r="A327" s="2" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="F327" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30">
       <c r="A328" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="F328" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="30">
       <c r="A329" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="F329" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="30">
       <c r="A330" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="F330" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="30">
       <c r="A331" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F331" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30">
       <c r="A332" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F332" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30">
       <c r="A333" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F333" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30">
       <c r="A334" s="2" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F334" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30">
       <c r="A335" s="2" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="F335" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="30">
       <c r="A336" s="2" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="F336" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="30">
       <c r="A337" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="F337" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="30">
       <c r="A338" s="2" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="F338" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30">
       <c r="A339" s="2" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="F339" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="30">
       <c r="A340" s="2" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="F340" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="30">
       <c r="A341" s="2" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F341" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="30">
       <c r="A342" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="F342" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="30">
       <c r="A343" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F343" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="30">
       <c r="A344" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F344" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30">
       <c r="A345" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F345" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30">
       <c r="A346" s="2" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F346" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="30">
       <c r="A347" s="2" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F347" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="30">
       <c r="A348" s="2" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F348" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="30">
       <c r="A349" s="2" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F349" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="30">
       <c r="A350" s="2" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="F350" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30">
       <c r="A351" s="2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="F351" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="30">
       <c r="A352" s="2" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F352" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F353" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="30">
       <c r="A354" s="2" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F354" s="4">
         <v>45741</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="30">
       <c r="A355" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F355" s="4">
         <v>45741</v>
@@ -11249,54 +11233,54 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="138" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -11316,7 +11300,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
@@ -11324,45 +11308,45 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
+    <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
       <c r="D7" s="14" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" ht="31.15" customHeight="1">
       <c r="D8" s="15" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" ht="31.15" customHeight="1">
       <c r="D9" s="16" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" ht="31.15" customHeight="1">
       <c r="D10" s="16" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" ht="31.15" customHeight="1">
       <c r="D11" s="16" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" ht="31.15" customHeight="1">
       <c r="D12" s="16" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" ht="31.15" customHeight="1">
       <c r="D13" s="16" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
       <c r="D14" s="17" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -11374,27 +11358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
-    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058C4BCF715D4AD4F91C01182295CEFC1" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1471b12c27521517e0f325006a7c1259">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="165a71d3-e0a0-490b-84d6-e4435d601f38" xmlns:ns3="01495b67-12aa-4b93-9011-f94ea5f3e05d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a8efc0d0e28bf6a2851dcbc84f7a3d8" ns2:_="" ns3:_="">
     <xsd:import namespace="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
@@ -11661,42 +11624,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
+    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
-    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
-    <ds:schemaRef ds:uri="01495b67-12aa-4b93-9011-f94ea5f3e05d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6BC9AC-24D0-4EC3-9741-D964B0E7FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1E8D6E-3973-449D-9FCA-B859258EC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,10 +306,10 @@
            A list of definitions of important building code terms is also provided for reference.
           &lt;/p&gt;
           &lt;p&gt;
-           While the Exposed Mass Timber Calculator facilitates an effective evaluation of permissible exposed mass timber elements in EMTC buildings, it is important to note that numerous other fire safety requirements must be considered in the building design. It is essential to refer to the relevant code articles to ensure compliance with these additional provisions.
+          While the Exposed Mass Timber Calculator facilitates an effective evaluation of permissible exposed mass timber elements in EMTC buildings, it is important to note that numerous other fire safety requirements must be considered in the building design. It is essential to refer to the relevant code articles to ensure compliance with these additional provisions. 
           &lt;/p&gt;
           &lt;p&gt;
-           The Exposed Mass Timber Calculator has been developed for information purposes only. Reference should always be made to the Building Code having jurisdiction. This tool should not be relied upon as a substitute for legal or design advice, and the user is responsible for how the tool is used or applied.
+           The Exposed Mass Timber Calculator has been developed for information purposes only. Reference should always be made to the Building Code having jurisdiction. This tool should not be relied upon as a substitute for legal or design advice, and the user is responsible for how the tool is used or applied. 
           &lt;/p&gt;
           &lt;p&gt;
            We appreciate any feedback or questions that you may have regarding The Exposed Mass Timber Calculator. Please email us via our helpdesk at &lt;a href='https://cwc.ca' target='_blank'&gt;cwc.ca&lt;/a&gt;.
@@ -363,10 +363,10 @@
            Une liste de définitions des termes importants du CNB est également fournie à titre de référence.
           &lt;/p&gt;
           &lt;p&gt;
-           Bien que le Calculateur debois d'oeuvre massif exposé facilite une évaluation efficace des éléments en bois d'oeuvre massif exposés admissibles dans les bâtiments CBOME, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du code pour garantir la conformité à ces dispositions supplémentaires.
+           Bien que le Calculateur debois d'oeuvre massif exposé facilite une évaluation efficace des éléments en bois d'oeuvre massif exposés admissibles dans les bâtiments CBOME, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du code pour garantir la conformité à ces dispositions supplémentaires. 
           &lt;/p&gt;
           &lt;p&gt;
-           Le Calculateur de bois d'oeuvre massif exposé a été développé à des fins d'information uniquement. Il convient toujours de se référer au Code du bâtiment ayant juridiction. Cet outil ne doit pas être considéré comme un substitut aux conseils juridiques ou de conception, et l'utilisateur est responsable de la manière dont l'outil est utilisé ou appliqué.
+          Le Calculateur de bois d'oeuvre massif exposé a été développé à des fins d'information uniquement. Il convient toujours de se référer au Code du bâtiment ayant juridiction. Cet outil ne doit pas être considéré comme un substitut aux conseils juridiques ou de conception, et l'utilisateur est responsable de la manière dont l'outil est utilisé ou appliqué.
           &lt;/p&gt;
           &lt;p&gt;
            Nous apprécions tous les commentaires ou questions que vous pourriez avoir concernant le Calculateur de bois d'oeuvre massif exposé. Veuillez nous envoyer un courriel via notre service d'assistance à &lt;a href='https://cwc.ca' target='_blank'&gt;cwc.ca&lt;/a&gt;.
@@ -1511,7 +1511,7 @@
               While the Exposed Mass Timber Calculator facilitates an effective evaluation of permissible exposed mass timber elements in EMTC buildings, it is important to note that numerous other fire safety requirements must be considered in the building design. It is essential to refer to the relevant code articles to ensure compliance with these additional provisions.
              &lt;/p&gt;
              &lt;p&gt;
-              While the Exposed Mass Timber Calculator facilitates an effective evaluation of permissible exposed mass timber elements in EMTC buildings, it has been developed for information purposes only. Reference should always be made to the Building Code having jurisdiction. This tool should not be relied upon as a substitute for legal or design advice, and the user is responsible for how the tool is used or applied.
+              The Exposed Mass Timber Calculator has been developed for information purposes only. Reference should always be made to the Building Code having jurisdiction. This tool should not be relied upon as a substitute for legal or design advice, and the user is responsible for how the tool is used or applied. 
              &lt;/p&gt;
 &lt;p&gt;
 Also, it is important to note that numerous other fire safety requirements must be considered in the building design. It is essential to refer to the relevant code articles to ensure compliance with these additional provisions.
@@ -1568,10 +1568,10 @@
            Une liste de définitions des termes importants du CNB est également fournie à titre de référence.
           &lt;/p&gt;
           &lt;p&gt;
-           Bien que le Calculateur debois d'oeuvre massif exposé facilite une évaluation efficace des éléments en bois d'oeuvre massif exposés admissibles dans les bâtiments CBOME, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du code pour garantir la conformité à ces dispositions supplémentaires.
+           Bien que le Calculateur debois d'oeuvre massif exposé facilite une évaluation efficace des éléments en bois d'oeuvre massif exposés admissibles dans les bâtiments CBOME, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du code pour garantir la conformité à ces dispositions supplémentaires. 
           &lt;/p&gt;
           &lt;p&gt;
- Bien que le Calculateur de bois d'oeuvre massif exposé facilite une évaluation efficace des éléments en bois massif exposés permis dans les bâtiments CBOME, il a été développé à des fins d'information uniquement. Il convient toujours de se référer au Code du bâtiment ayant juridiction. Cet outil ne doit pas être utilisé comme substitut aux conseils juridiques ou de conception, et l'utilisateur est responsable de la manière dont l'outil est utilisé ou appliqué.
+ Le Calculateur de bois d'oeuvre massif exposé a été développé à des fins d'information uniquement. Il convient toujours de se référer au Code du bâtiment ayant juridiction. Cet outil ne doit pas être considéré comme un substitut aux conseils juridiques ou de conception, et l'utilisateur est responsable de la manière dont l'outil est utilisé ou appliqué. 
           &lt;/p&gt;
           &lt;p&gt;
  De plus, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du Code pour garantir la conformité à ces dispositions supplémentaires.
@@ -5677,8 +5677,8 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5924,7 +5924,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5">
+    <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="345">
+    <row r="20" spans="1:5" ht="336">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="409.6">
       <c r="A87" s="2" t="s">
         <v>334</v>
       </c>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1E8D6E-3973-449D-9FCA-B859258EC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4E9C8A-6EB2-4A07-8917-ADB5EB431498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1314">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -5066,6 +5066,18 @@
   </si>
   <si>
     <t>pdf__table_perimeter_walls_material_lightframe</t>
+  </si>
+  <si>
+    <t>For Mobile Block Message - mobile_block_message</t>
+  </si>
+  <si>
+    <t>mobile_block_message</t>
+  </si>
+  <si>
+    <t>This feature is not available on mobile devices.&lt;br&gt;Please visit from a desktop browser.</t>
+  </si>
+  <si>
+    <t>Cette fonctionnalité n'est pas disponible sur les appareils mobiles.&lt;br&gt;Veuillez utiliser un navigateur sur ordinateur.</t>
   </si>
   <si>
     <t>Format instructions</t>
@@ -5674,11 +5686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A357" sqref="A357:A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7046,7 +7058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="30.75">
       <c r="A86" s="2" t="s">
         <v>332</v>
       </c>
@@ -11212,6 +11224,23 @@
       </c>
       <c r="F355" s="4">
         <v>45741</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="30.75">
+      <c r="A356" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F356" s="4">
+        <v>45863</v>
       </c>
     </row>
   </sheetData>
@@ -11230,7 +11259,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11240,47 +11269,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -11311,42 +11340,42 @@
     <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
     <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
       <c r="D7" s="14" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="8" spans="4:4" ht="31.15" customHeight="1">
       <c r="D8" s="15" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="9" spans="4:4" ht="31.15" customHeight="1">
       <c r="D9" s="16" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="4:4" ht="31.15" customHeight="1">
       <c r="D10" s="16" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="4:4" ht="31.15" customHeight="1">
       <c r="D11" s="16" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" spans="4:4" ht="31.15" customHeight="1">
       <c r="D12" s="16" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="4:4" ht="31.15" customHeight="1">
       <c r="D13" s="16" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
       <c r="D14" s="17" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
@@ -11358,6 +11387,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
+    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058C4BCF715D4AD4F91C01182295CEFC1" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1471b12c27521517e0f325006a7c1259">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="165a71d3-e0a0-490b-84d6-e4435d601f38" xmlns:ns3="01495b67-12aa-4b93-9011-f94ea5f3e05d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a8efc0d0e28bf6a2851dcbc84f7a3d8" ns2:_="" ns3:_="">
     <xsd:import namespace="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
@@ -11624,29 +11674,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
-    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11654,7 +11683,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4E9C8A-6EB2-4A07-8917-ADB5EB431498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6841B5-6438-4E22-B4DB-EF227FAA646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1455">
   <si>
     <t>Location (Information purposes only)</t>
   </si>
@@ -5078,6 +5078,431 @@
   </si>
   <si>
     <t>Cette fonctionnalité n'est pas disponible sur les appareils mobiles.&lt;br&gt;Veuillez utiliser un navigateur sur ordinateur.</t>
+  </si>
+  <si>
+    <t>Menu Navigation - Resources</t>
+  </si>
+  <si>
+    <t>menu_resources</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>menu_browse_resources</t>
+  </si>
+  <si>
+    <t>Browse Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcourir les ressources                                            </t>
+  </si>
+  <si>
+    <t>menu_browse_resources_desc</t>
+  </si>
+  <si>
+    <t>Access a wide range of publications, solutions, and professional help to support every stage of your wood construction projects.</t>
+  </si>
+  <si>
+    <t>Accédez à un large éventail de publications, de solutions et d'aide professionnelle pour soutenir chaque étape de vos projets de construction en bois.</t>
+  </si>
+  <si>
+    <t>menu_design_tools</t>
+  </si>
+  <si>
+    <t>Design Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils de conception                                            </t>
+  </si>
+  <si>
+    <t>menu_design_tools_desc</t>
+  </si>
+  <si>
+    <t>Certified Tools and Calculators to help you design efficient and sustainable wood structures with confidence and safety.</t>
+  </si>
+  <si>
+    <t>Outils et calculateurs certifiés pour vous aider à concevoir des structures en bois efficaces et durables en toute confiance et sécurité.</t>
+  </si>
+  <si>
+    <t>menu_elearning</t>
+  </si>
+  <si>
+    <t>eLearning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apprentissage en ligne                                            </t>
+  </si>
+  <si>
+    <t>menu_elearning_desc</t>
+  </si>
+  <si>
+    <t>Build your expertise with online courses, workshops, and training on wood construction, standards, and best practices.</t>
+  </si>
+  <si>
+    <t>Développez votre expertise grâce à des cours en ligne, des ateliers et des formations sur la construction en bois, les normes et les meilleures pratiques.</t>
+  </si>
+  <si>
+    <t>menu_wood_innovation_network</t>
+  </si>
+  <si>
+    <t>Wood Innovation Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau d'innovation dans le domaine du bois                                            </t>
+  </si>
+  <si>
+    <t>menu_wood_innovation_network_desc</t>
+  </si>
+  <si>
+    <t>Connect with professionals and explore cutting-edge ideas that drive innovation in wood construction and sustainability.</t>
+  </si>
+  <si>
+    <t>Entrez en contact avec des professionnels et explorez des idées de pointe qui stimulent l'innovation dans la construction en bois et le développement durable.</t>
+  </si>
+  <si>
+    <t>footer_build_safe</t>
+  </si>
+  <si>
+    <t>Build Safe and Strong with Wood</t>
+  </si>
+  <si>
+    <t>Construisez de manière sûre et solide avec le bois.</t>
+  </si>
+  <si>
+    <t>footer_software_description</t>
+  </si>
+  <si>
+    <t>WoodWorks Software® offers precision and efficiency, enabling professionals to design safe and high-quality structures that adhere to the latest Canadian building regulations.</t>
+  </si>
+  <si>
+    <t>Logiciel WoodWorks offre précision et efficacité, permettant
+aux professionnels de concevoir des structures sûres et de haute qualité qui respectent les
+dernières réglementations canadiennes en matière de construction.</t>
+  </si>
+  <si>
+    <t>footer_learn_more</t>
+  </si>
+  <si>
+    <t>Learn More</t>
+  </si>
+  <si>
+    <t>Apprendre encore plus</t>
+  </si>
+  <si>
+    <t>menu_building_with_wood</t>
+  </si>
+  <si>
+    <t>Building with Wood</t>
+  </si>
+  <si>
+    <t>Construire avec du bois</t>
+  </si>
+  <si>
+    <t>menu_why_wood_faq</t>
+  </si>
+  <si>
+    <t>Why Wood (FAQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi le bois (FAQ)                                            </t>
+  </si>
+  <si>
+    <t>menu_wood_products</t>
+  </si>
+  <si>
+    <t>Wood Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produits du bois                                            </t>
+  </si>
+  <si>
+    <t>menu_industry_news</t>
+  </si>
+  <si>
+    <t>Industry News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelles de l'industrie                                            </t>
+  </si>
+  <si>
+    <t>menu_building_systems</t>
+  </si>
+  <si>
+    <t>Building Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes et normes                                            </t>
+  </si>
+  <si>
+    <t>menu_need_support</t>
+  </si>
+  <si>
+    <t>Need Support?</t>
+  </si>
+  <si>
+    <t>Besoin d'aide?</t>
+  </si>
+  <si>
+    <t>menu_help_desk_description</t>
+  </si>
+  <si>
+    <t>The CWC Help Desk offers a number of resources on our Member’s Products...</t>
+  </si>
+  <si>
+    <t>Le service d'assistance de la CWC et le programme WoodWorks offrent de nombreuses ressources et un soutien technique aux professionnels de la construction.</t>
+  </si>
+  <si>
+    <t>menu_get_support</t>
+  </si>
+  <si>
+    <t>Get Support ↗</t>
+  </si>
+  <si>
+    <t>Obtenir de l'aide</t>
+  </si>
+  <si>
+    <t>menu_help_desk_form</t>
+  </si>
+  <si>
+    <t>Help Desk Form</t>
+  </si>
+  <si>
+    <t>Formulaire d'assistance</t>
+  </si>
+  <si>
+    <t>menu_publications</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>menu_technical_books</t>
+  </si>
+  <si>
+    <t>Technical Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livres techniques                                            </t>
+  </si>
+  <si>
+    <t>menu_free_publications</t>
+  </si>
+  <si>
+    <t>Free Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publications gratuites                                            </t>
+  </si>
+  <si>
+    <t>menu_magazine</t>
+  </si>
+  <si>
+    <t>Magazine</t>
+  </si>
+  <si>
+    <t>Revue</t>
+  </si>
+  <si>
+    <t>menu_case_studies</t>
+  </si>
+  <si>
+    <t>Case Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Études de cas                                            </t>
+  </si>
+  <si>
+    <t>menu_award_books</t>
+  </si>
+  <si>
+    <t>Award Books</t>
+  </si>
+  <si>
+    <t>Livres des prix</t>
+  </si>
+  <si>
+    <t>menu_annual_reports</t>
+  </si>
+  <si>
+    <t>Annual Reports</t>
+  </si>
+  <si>
+    <t>Rapports annuels</t>
+  </si>
+  <si>
+    <t>footer_webstore_title</t>
+  </si>
+  <si>
+    <t>Webstore</t>
+  </si>
+  <si>
+    <t>Boutique en ligne</t>
+  </si>
+  <si>
+    <t>footer_webstore_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Découvrez des ressources essentielles pour la construction et la conception en bois. </t>
+  </si>
+  <si>
+    <t>button_access_resources</t>
+  </si>
+  <si>
+    <t>Access Resources</t>
+  </si>
+  <si>
+    <t>Accéder aux ressources</t>
+  </si>
+  <si>
+    <t>button_free_publications</t>
+  </si>
+  <si>
+    <t>Free publications</t>
+  </si>
+  <si>
+    <t>Publications gratuites</t>
+  </si>
+  <si>
+    <t>menu_events</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Événements</t>
+  </si>
+  <si>
+    <t>submenu_about_us_title</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>À propos de nous</t>
+  </si>
+  <si>
+    <t>submenu_about_us_desc</t>
+  </si>
+  <si>
+    <t>Learn more about our mission, team, and work.</t>
+  </si>
+  <si>
+    <t>En savoir plus sur notre mission, notre équipe et notre travail.</t>
+  </si>
+  <si>
+    <t>submenu_our_board_title</t>
+  </si>
+  <si>
+    <t>Our Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre Conseil                                            </t>
+  </si>
+  <si>
+    <t>submenu_our_board_desc</t>
+  </si>
+  <si>
+    <t>Get to know the leaders guiding our organization.</t>
+  </si>
+  <si>
+    <t>Faites connaissance avec les dirigeants qui guident notre organisation.</t>
+  </si>
+  <si>
+    <t>submenu_our_members_title</t>
+  </si>
+  <si>
+    <t>Our Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos membres                                            </t>
+  </si>
+  <si>
+    <t>submenu_our_members_desc</t>
+  </si>
+  <si>
+    <t>Meet the organizations shaping the wood-building industry.</t>
+  </si>
+  <si>
+    <t>Rencontrez les organisations qui façonnent l'industrie de la construction en bois.</t>
+  </si>
+  <si>
+    <t>submenu_careers_title</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrières                                            </t>
+  </si>
+  <si>
+    <t>submenu_careers_desc</t>
+  </si>
+  <si>
+    <t>Explore our job openings and other opportunities.</t>
+  </si>
+  <si>
+    <t>Découvrez nos offres d'emploi et autres opportunités.</t>
+  </si>
+  <si>
+    <t>menu_contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>contact_us_title</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contactez-nous                                            </t>
+  </si>
+  <si>
+    <t>contact_us_desc</t>
+  </si>
+  <si>
+    <t>Get in touch with our team...</t>
+  </si>
+  <si>
+    <t>Contactez notre équipe pour toute question, commentaire ou assistance concernant les ressources et services liés à la construction en bois.</t>
+  </si>
+  <si>
+    <t>help_desk_form_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire d'assistance                                            </t>
+  </si>
+  <si>
+    <t>help_desk_form_desc</t>
+  </si>
+  <si>
+    <t>Submit your questions or technical issues through our Help Desk. Our team is here to assist you.</t>
+  </si>
+  <si>
+    <t>Soumettez vos questions ou problèmes techniques par l'intermédiaire de notre service d'assistance. Notre équipe est là pour vous aider</t>
+  </si>
+  <si>
+    <t>about us menu</t>
+  </si>
+  <si>
+    <t>menu_about</t>
+  </si>
+  <si>
+    <t>codes standards</t>
+  </si>
+  <si>
+    <t>menu_codes_standards</t>
+  </si>
+  <si>
+    <t>Codes &amp; Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systèmes de construction                                            </t>
   </si>
   <si>
     <t>Format instructions</t>
@@ -5686,11 +6111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A357" sqref="A357:A358"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D404" sqref="D403:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7255,7 +7680,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30">
+    <row r="99" spans="1:4" ht="30.75">
       <c r="A99" s="2" t="s">
         <v>381</v>
       </c>
@@ -11241,6 +11666,816 @@
       </c>
       <c r="F356" s="4">
         <v>45863</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D357" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F357" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D358" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F358" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="30.75">
+      <c r="A359" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F359" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F360" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="30.75">
+      <c r="A361" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D361" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F361" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D362" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F362" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="30.75">
+      <c r="A363" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F363" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F364" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="30.75">
+      <c r="A365" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F365" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D366" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F366" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="45.75">
+      <c r="A367" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D367" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F367" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D368" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F368" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D369" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F369" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D370" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F370" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F371" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D372" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F372" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D373" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F373" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D374" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F374" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="30.75">
+      <c r="A375" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D375" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F375" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D376" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F376" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F377" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F378" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D379" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F379" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F380" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F381" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D382" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F382" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D383" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F383" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F384" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F385" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F386" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D387" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F387" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F388" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F389" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F390" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D391" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F391" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F392" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D393" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F393" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F394" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F395" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F396" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F397" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F398" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D399" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F399" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="30.75">
+      <c r="A400" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F400" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D401" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F401" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="30.75">
+      <c r="A402" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D402" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F402" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
@@ -11269,47 +12504,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>1297</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1298</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1299</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1300</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>1301</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1302</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1303</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>1304</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>1305</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -11340,42 +12575,42 @@
     <row r="6" spans="4:4" ht="15.75" thickBot="1"/>
     <row r="7" spans="4:4" s="13" customFormat="1" ht="37.9" customHeight="1" thickBot="1">
       <c r="D7" s="14" t="s">
-        <v>1306</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8" spans="4:4" ht="31.15" customHeight="1">
       <c r="D8" s="15" t="s">
-        <v>1307</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="9" spans="4:4" ht="31.15" customHeight="1">
       <c r="D9" s="16" t="s">
-        <v>1308</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="10" spans="4:4" ht="31.15" customHeight="1">
       <c r="D10" s="16" t="s">
-        <v>1309</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="11" spans="4:4" ht="31.15" customHeight="1">
       <c r="D11" s="16" t="s">
-        <v>1310</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="12" spans="4:4" ht="31.15" customHeight="1">
       <c r="D12" s="16" t="s">
-        <v>1311</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="13" spans="4:4" ht="31.15" customHeight="1">
       <c r="D13" s="16" t="s">
-        <v>1312</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="4:4" ht="22.15" customHeight="1" thickBot="1">
       <c r="D14" s="17" t="s">
-        <v>1313</v>
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -11387,15 +12622,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
@@ -11407,7 +12633,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058C4BCF715D4AD4F91C01182295CEFC1" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1471b12c27521517e0f325006a7c1259">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="165a71d3-e0a0-490b-84d6-e4435d601f38" xmlns:ns3="01495b67-12aa-4b93-9011-f94ea5f3e05d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a8efc0d0e28bf6a2851dcbc84f7a3d8" ns2:_="" ns3:_="">
     <xsd:import namespace="165a71d3-e0a0-490b-84d6-e4435d601f38"/>
@@ -11674,16 +12900,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1BB0EB-DC50-4433-BC1B-1ADF362A1D8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/assets/files/Language_Translation.xlsx
+++ b/assets/files/Language_Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mass_timber\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6841B5-6438-4E22-B4DB-EF227FAA646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{013CEAC6-029C-4F72-A2C0-4B47B9B74315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,9 +1513,6 @@
              &lt;p&gt;
               The Exposed Mass Timber Calculator has been developed for information purposes only. Reference should always be made to the Building Code having jurisdiction. This tool should not be relied upon as a substitute for legal or design advice, and the user is responsible for how the tool is used or applied. 
              &lt;/p&gt;
-&lt;p&gt;
-Also, it is important to note that numerous other fire safety requirements must be considered in the building design. It is essential to refer to the relevant code articles to ensure compliance with these additional provisions.
-&lt;/p&gt;
              &lt;p&gt;
               We appreciate any feedback or questions that you may have regarding The Exposed Mass Timber Calculator. Please email us via our helpdesk at &lt;a href='https://cwc.ca' target='_blank'&gt;cwc.ca&lt;/a&gt;.
              &lt;/p&gt;</t>
@@ -1572,9 +1569,6 @@
           &lt;/p&gt;
           &lt;p&gt;
  Le Calculateur de bois d'oeuvre massif exposé a été développé à des fins d'information uniquement. Il convient toujours de se référer au Code du bâtiment ayant juridiction. Cet outil ne doit pas être considéré comme un substitut aux conseils juridiques ou de conception, et l'utilisateur est responsable de la manière dont l'outil est utilisé ou appliqué. 
-          &lt;/p&gt;
-          &lt;p&gt;
- De plus, il est important de noter que de nombreuses autres exigences de sécurité incendie doivent être prises en compte dans la conception du bâtiment. Il est essentiel de se référer aux articles pertinents du Code pour garantir la conformité à ces dispositions supplémentaires.
           &lt;/p&gt;
           &lt;p&gt;
            Nous apprécions tous les commentaires ou questions que vous pourriez avoir concernant le Calculateur de bois d'oeuvre massif exposé. Veuillez nous envoyer un courriel via notre service d'assistance à &lt;a href='https://cwc.ca' target='_blank'&gt;cwc.ca&lt;/a&gt;.
@@ -6114,8 +6108,8 @@
   <dimension ref="A1:F404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D404" sqref="D403:D404"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12622,15 +12616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
-    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12901,16 +12892,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="165a71d3-e0a0-490b-84d6-e4435d601f38" xsi:nil="true"/>
+    <TaxCatchAll xmlns="01495b67-12aa-4b93-9011-f94ea5f3e05d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12918,7 +12912,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D05C45-8F4D-4FAD-AE19-B8BB44580719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A34DC8F-73E1-4732-9E65-5077D0FB11A6}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
